--- a/data/default_biases_cryo.xlsx
+++ b/data/default_biases_cryo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="14400" windowHeight="5960"/>
+    <workbookView activeTab="1" windowWidth="14400" windowHeight="5960"/>
   </bookViews>
   <sheets>
     <sheet name="Biases" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55" count="55">
   <si>
-    <t>PAR</t>
-  </si>
-  <si>
     <t>STRIP02</t>
   </si>
   <si>
@@ -37,6 +34,9 @@
   </si>
   <si>
     <t>STRIP07</t>
+  </si>
+  <si>
+    <t>STRIP08</t>
   </si>
   <si>
     <t>STRIP09</t>
@@ -289,8 +289,8 @@
   </sheetPr>
   <dimension ref="A1:BO29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BO1" sqref="BO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -299,25 +299,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67">
-      <c r="A1" t="s">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>PAR</t>
+        </is>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>STRIP08</t>
-        </is>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -6284,8 +6284,8 @@
   </sheetPr>
   <dimension ref="A1:AMK1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A8" workbookViewId="0" tabSelected="1">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1025" ht="20.25">
@@ -6574,10 +6574,8 @@
           <t>Y0</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>STRIP8</t>
-        </is>
+      <c r="B26" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:1025" ht="20.25">
@@ -6607,7 +6605,7 @@
         </is>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:1025" ht="20.25">
@@ -6702,7 +6700,7 @@
         </is>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:1025" ht="20.25">
@@ -6757,7 +6755,7 @@
         </is>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:1025" ht="20.25">

--- a/data/default_biases_cryo.xlsx
+++ b/data/default_biases_cryo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
-  <workbookPr date1904="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" windowWidth="14400" windowHeight="5960"/>
+    <workbookView windowWidth="23040" windowHeight="9168"/>
   </bookViews>
   <sheets>
     <sheet name="Biases" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <definedName name="_xlnm.Sheet_Title" localSheetId="1">"Modules"</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
-  <webPublishing allowPng="1" css="0" codePage="1252"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="171">
+  <si>
+    <t>PAR</t>
+  </si>
   <si>
     <t>STRIP02</t>
   </si>
@@ -42,6 +44,9 @@
     <t>STRIP09</t>
   </si>
   <si>
+    <t>STRIP10</t>
+  </si>
+  <si>
     <t>STRIP12</t>
   </si>
   <si>
@@ -57,12 +62,24 @@
     <t>STRIP17</t>
   </si>
   <si>
+    <t>STRIP20</t>
+  </si>
+  <si>
+    <t>STRIP21</t>
+  </si>
+  <si>
     <t>STRIP22</t>
   </si>
   <si>
     <t>STRIP24</t>
   </si>
   <si>
+    <t>STRIP25</t>
+  </si>
+  <si>
+    <t>STRIP26</t>
+  </si>
+  <si>
     <t>STRIP27</t>
   </si>
   <si>
@@ -105,6 +122,9 @@
     <t>STRIP43</t>
   </si>
   <si>
+    <t>STRIP44</t>
+  </si>
+  <si>
     <t>STRIP45</t>
   </si>
   <si>
@@ -165,6 +185,9 @@
     <t>STRIP67</t>
   </si>
   <si>
+    <t>STRIP68</t>
+  </si>
+  <si>
     <t>STRIP69</t>
   </si>
   <si>
@@ -174,12 +197,24 @@
     <t>STRIP71</t>
   </si>
   <si>
+    <t>STRIP72</t>
+  </si>
+  <si>
     <t>STRIP73</t>
   </si>
   <si>
+    <t>STRIP74</t>
+  </si>
+  <si>
+    <t>STRIP75</t>
+  </si>
+  <si>
     <t>STRIP76</t>
   </si>
   <si>
+    <t>STRIP77</t>
+  </si>
+  <si>
     <t>STRIP78</t>
   </si>
   <si>
@@ -187,45 +222,503 @@
   </si>
   <si>
     <t>STRIP82</t>
+  </si>
+  <si>
+    <t>VD0</t>
+  </si>
+  <si>
+    <t>VD1</t>
+  </si>
+  <si>
+    <t>VD2</t>
+  </si>
+  <si>
+    <t>VD3</t>
+  </si>
+  <si>
+    <t>VD4</t>
+  </si>
+  <si>
+    <t>VD5</t>
+  </si>
+  <si>
+    <t>VG0</t>
+  </si>
+  <si>
+    <t>VG1</t>
+  </si>
+  <si>
+    <t>VG2</t>
+  </si>
+  <si>
+    <t>VG3</t>
+  </si>
+  <si>
+    <t>VG4</t>
+  </si>
+  <si>
+    <t>VG5</t>
+  </si>
+  <si>
+    <t>VG4A</t>
+  </si>
+  <si>
+    <t>VG5A</t>
+  </si>
+  <si>
+    <t>VPIN0</t>
+  </si>
+  <si>
+    <t>VPIN1</t>
+  </si>
+  <si>
+    <t>VPIN2</t>
+  </si>
+  <si>
+    <t>VPIN3</t>
+  </si>
+  <si>
+    <t>IPIN0</t>
+  </si>
+  <si>
+    <t>IPIN1</t>
+  </si>
+  <si>
+    <t>IPIN2</t>
+  </si>
+  <si>
+    <t>IPIN3</t>
+  </si>
+  <si>
+    <t>ID0</t>
+  </si>
+  <si>
+    <t>ID1</t>
+  </si>
+  <si>
+    <t>ID2</t>
+  </si>
+  <si>
+    <t>ID3</t>
+  </si>
+  <si>
+    <t>ID4</t>
+  </si>
+  <si>
+    <t>ID5</t>
+  </si>
+  <si>
+    <t>DET0_BIAS</t>
+  </si>
+  <si>
+    <t>DET1_BIAS</t>
+  </si>
+  <si>
+    <t>DET2_BIAS</t>
+  </si>
+  <si>
+    <t>DET3_BIAS</t>
+  </si>
+  <si>
+    <t>DET0_OFFSET</t>
+  </si>
+  <si>
+    <t>DET1_OFFSET</t>
+  </si>
+  <si>
+    <t>DET2_OFFSET</t>
+  </si>
+  <si>
+    <t>DET3_OFFSET</t>
+  </si>
+  <si>
+    <t>DET0_GAIN</t>
+  </si>
+  <si>
+    <t>DET1_GAIN</t>
+  </si>
+  <si>
+    <t>DET2_GAIN</t>
+  </si>
+  <si>
+    <t>DET3_GAIN</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Polarimeter</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>V0</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>(V7)</t>
+  </si>
+  <si>
+    <t>R0</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>(R7)</t>
+  </si>
+  <si>
+    <t>O0</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>O4</t>
+  </si>
+  <si>
+    <t>O5</t>
+  </si>
+  <si>
+    <t>O6</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>(O7)</t>
+  </si>
+  <si>
+    <t>Y0</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>Y5</t>
+  </si>
+  <si>
+    <t>Y6</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>(Y7)</t>
+  </si>
+  <si>
+    <t>G0</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>(G7)</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>W5</t>
+  </si>
+  <si>
+    <t>(B7)</t>
+  </si>
+  <si>
+    <t>I0</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>I6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
-      <vertAlign val="baseline"/>
-      <sz val="10"/>
-      <strike val="0"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <vertAlign val="baseline"/>
-      <sz val="11"/>
-      <strike val="0"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <u val="none"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <vertAlign val="baseline"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <strike val="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,298 +731,994 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="0" diagonalDown="0">
-      <left style="none">
-        <color rgb="FFC7C7C7"/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="none">
-        <color rgb="FFC7C7C7"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:BO29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BO41"/>
   <sheetViews>
-    <sheetView topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BO1" sqref="BO1"/>
+    <sheetView tabSelected="1" topLeftCell="AW19" workbookViewId="0">
+      <selection activeCell="B41" sqref="B30:BO41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" style="1" width="9.142307692307693"/>
+    <col min="1" max="1" width="16.8888888888889" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9.13888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>PAR</t>
-        </is>
+    <row r="1" ht="12.6" spans="1:67">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>STRIP10</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>STRIP20</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>STRIP21</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>STRIP25</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>STRIP26</t>
-        </is>
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>STRIP44</t>
-        </is>
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
       </c>
       <c r="AI1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AL1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AO1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AP1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AR1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AT1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AU1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AV1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AW1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AX1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AY1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AZ1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="BA1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="BB1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>STRIP68</t>
-        </is>
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
       </c>
       <c r="BD1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="BE1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="BF1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>STRIP72</t>
-        </is>
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
       </c>
       <c r="BH1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>STRIP74</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>STRIP75</t>
-        </is>
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
       </c>
       <c r="BK1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>STRIP77</t>
-        </is>
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="BN1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="BO1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:67">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>VD0</t>
-        </is>
+    <row r="2" ht="12.6" spans="1:67">
+      <c r="A2" t="s">
+        <v>67</v>
       </c>
       <c r="B2">
         <v>900</v>
@@ -730,11 +1919,9 @@
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:67">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>VD1</t>
-        </is>
+    <row r="3" ht="12.6" spans="1:67">
+      <c r="A3" t="s">
+        <v>68</v>
       </c>
       <c r="B3">
         <v>900</v>
@@ -935,11 +2122,9 @@
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:67">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>VD2</t>
-        </is>
+    <row r="4" ht="12.6" spans="1:67">
+      <c r="A4" t="s">
+        <v>69</v>
       </c>
       <c r="B4">
         <v>900</v>
@@ -1140,11 +2325,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:67">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>VD3</t>
-        </is>
+    <row r="5" ht="12.6" spans="1:67">
+      <c r="A5" t="s">
+        <v>70</v>
       </c>
       <c r="B5">
         <v>900</v>
@@ -1345,11 +2528,9 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:67">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>VD4</t>
-        </is>
+    <row r="6" ht="12.6" spans="1:67">
+      <c r="A6" t="s">
+        <v>71</v>
       </c>
       <c r="B6">
         <v>900</v>
@@ -1550,11 +2731,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:67">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>VD5</t>
-        </is>
+    <row r="7" ht="12.6" spans="1:67">
+      <c r="A7" t="s">
+        <v>72</v>
       </c>
       <c r="B7">
         <v>900</v>
@@ -1755,11 +2934,9 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:67">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>VG0</t>
-        </is>
+    <row r="8" ht="12.6" spans="1:67">
+      <c r="A8" t="s">
+        <v>73</v>
       </c>
       <c r="B8">
         <v>220</v>
@@ -1960,11 +3137,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:67">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>VG1</t>
-        </is>
+    <row r="9" ht="12.6" spans="1:67">
+      <c r="A9" t="s">
+        <v>74</v>
       </c>
       <c r="B9">
         <v>300</v>
@@ -2165,11 +3340,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:67">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>VG2</t>
-        </is>
+    <row r="10" ht="12.6" spans="1:67">
+      <c r="A10" t="s">
+        <v>75</v>
       </c>
       <c r="B10">
         <v>256</v>
@@ -2370,11 +3543,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:67">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>VG3</t>
-        </is>
+    <row r="11" ht="12.6" spans="1:67">
+      <c r="A11" t="s">
+        <v>76</v>
       </c>
       <c r="B11">
         <v>267</v>
@@ -2575,11 +3746,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:67">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>VG4</t>
-        </is>
+    <row r="12" ht="12.6" spans="1:67">
+      <c r="A12" t="s">
+        <v>77</v>
       </c>
       <c r="B12">
         <v>123</v>
@@ -2780,11 +3949,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:67">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>VG5</t>
-        </is>
+    <row r="13" ht="12.6" spans="1:67">
+      <c r="A13" t="s">
+        <v>78</v>
       </c>
       <c r="B13">
         <v>204</v>
@@ -2886,7 +4053,7 @@
         <v>203</v>
       </c>
       <c r="AI13">
-        <v>-0.69999999999999996</v>
+        <v>-0.7</v>
       </c>
       <c r="AJ13">
         <v>-40</v>
@@ -2985,11 +4152,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:67">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>VG4A</t>
-        </is>
+    <row r="14" ht="12.6" spans="1:67">
+      <c r="A14" t="s">
+        <v>79</v>
       </c>
       <c r="B14">
         <v>-1</v>
@@ -3190,11 +4355,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:67">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>VG5A</t>
-        </is>
+    <row r="15" ht="12.6" spans="1:67">
+      <c r="A15" t="s">
+        <v>80</v>
       </c>
       <c r="B15">
         <v>-1</v>
@@ -3395,11 +4558,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:67">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>VPIN0</t>
-        </is>
+    <row r="16" ht="12.6" spans="1:67">
+      <c r="A16" t="s">
+        <v>81</v>
       </c>
       <c r="B16">
         <v>-1800</v>
@@ -3600,11 +4761,9 @@
         <v>-1800</v>
       </c>
     </row>
-    <row r="17" spans="1:67">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>VPIN1</t>
-        </is>
+    <row r="17" ht="12.6" spans="1:67">
+      <c r="A17" t="s">
+        <v>82</v>
       </c>
       <c r="B17">
         <v>-1800</v>
@@ -3805,11 +4964,9 @@
         <v>-1800</v>
       </c>
     </row>
-    <row r="18" spans="1:67">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>VPIN2</t>
-        </is>
+    <row r="18" ht="12.6" spans="1:67">
+      <c r="A18" t="s">
+        <v>83</v>
       </c>
       <c r="B18">
         <v>-1800</v>
@@ -4010,11 +5167,9 @@
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="1:67">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>VPIN3</t>
-        </is>
+    <row r="19" ht="12.6" spans="1:67">
+      <c r="A19" t="s">
+        <v>84</v>
       </c>
       <c r="B19">
         <v>-1800</v>
@@ -4215,11 +5370,9 @@
         <v>-1800</v>
       </c>
     </row>
-    <row r="20" spans="1:67">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>IPIN0</t>
-        </is>
+    <row r="20" ht="12.6" spans="1:67">
+      <c r="A20" t="s">
+        <v>85</v>
       </c>
       <c r="B20">
         <v>1000</v>
@@ -4420,11 +5573,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:67">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>IPIN1</t>
-        </is>
+    <row r="21" ht="12.6" spans="1:67">
+      <c r="A21" t="s">
+        <v>86</v>
       </c>
       <c r="B21">
         <v>1000</v>
@@ -4625,11 +5776,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:67">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>IPIN2</t>
-        </is>
+    <row r="22" ht="12.6" spans="1:67">
+      <c r="A22" t="s">
+        <v>87</v>
       </c>
       <c r="B22">
         <v>1000</v>
@@ -4830,11 +5979,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:67">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>IPIN3</t>
-        </is>
+    <row r="23" ht="12.6" spans="1:67">
+      <c r="A23" t="s">
+        <v>88</v>
       </c>
       <c r="B23">
         <v>1000</v>
@@ -5035,11 +6182,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:67">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ID0</t>
-        </is>
+    <row r="24" ht="12.6" spans="1:67">
+      <c r="A24" t="s">
+        <v>89</v>
       </c>
       <c r="B24">
         <v>4000</v>
@@ -5240,11 +6385,9 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="25" spans="1:67">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ID1</t>
-        </is>
+    <row r="25" ht="12.6" spans="1:67">
+      <c r="A25" t="s">
+        <v>90</v>
       </c>
       <c r="B25">
         <v>4000</v>
@@ -5445,11 +6588,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="26" spans="1:67">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ID2</t>
-        </is>
+    <row r="26" ht="12.6" spans="1:67">
+      <c r="A26" t="s">
+        <v>91</v>
       </c>
       <c r="B26">
         <v>6000</v>
@@ -5650,11 +6791,9 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="27" spans="1:67">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ID3</t>
-        </is>
+    <row r="27" ht="12.6" spans="1:67">
+      <c r="A27" t="s">
+        <v>92</v>
       </c>
       <c r="B27">
         <v>4500</v>
@@ -5855,11 +6994,9 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="28" spans="1:67">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ID4</t>
-        </is>
+    <row r="28" ht="12.6" spans="1:67">
+      <c r="A28" t="s">
+        <v>93</v>
       </c>
       <c r="B28">
         <v>6000</v>
@@ -6060,11 +7197,9 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="29" spans="1:67">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ID5</t>
-        </is>
+    <row r="29" ht="12.6" spans="1:67">
+      <c r="A29" t="s">
+        <v>94</v>
       </c>
       <c r="B29">
         <v>3400</v>
@@ -6265,640 +7400,2940 @@
         <v>3700</v>
       </c>
     </row>
+    <row r="30" ht="12.6" spans="1:67">
+      <c r="A30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="O30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="P30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="R30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="T30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="U30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="V30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="W30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AI30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AL30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AM30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AN30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AO30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AP30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AQ30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AR30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AS30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AT30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AU30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AV30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AW30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AX30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AY30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AZ30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BA30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BB30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BC30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BD30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BE30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BF30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BG30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BH30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BI30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BJ30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BK30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BL30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BM30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BN30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BO30" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" ht="12.6" spans="1:67">
+      <c r="A31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="O31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="P31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="R31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="T31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="U31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="V31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="W31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AM31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AN31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AO31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AP31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AQ31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AR31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AS31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AT31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AU31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AV31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AW31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AX31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AY31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AZ31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BA31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BB31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BC31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BD31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BE31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BF31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BG31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BH31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BI31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BJ31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BK31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BL31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BM31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BN31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BO31" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" ht="12.6" spans="1:67">
+      <c r="A32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="O32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="P32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="R32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="T32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="U32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="V32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="W32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AL32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AM32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AN32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AO32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AP32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AQ32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AR32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AS32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AT32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AU32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AV32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AW32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AX32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AY32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AZ32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BA32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BB32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BC32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BD32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BE32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BF32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BG32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BH32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BI32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BJ32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BK32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BL32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BM32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BN32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BO32" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" ht="12.6" spans="1:67">
+      <c r="A33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="O33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="R33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="T33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="U33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="V33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="W33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AF33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AI33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AK33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AL33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AM33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AN33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AO33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AP33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AQ33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AR33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AS33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AT33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AU33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AV33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AW33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AX33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AY33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AZ33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BA33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BB33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BC33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BD33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BE33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BF33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BG33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BH33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BI33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BJ33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BK33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BL33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BM33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BN33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BO33" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" ht="12.6" spans="1:67">
+      <c r="A34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="O34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="P34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="R34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="T34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="U34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="V34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="W34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AF34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AI34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AK34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AL34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AM34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AN34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AO34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AP34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AQ34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AR34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AS34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AT34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AU34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AV34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AW34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AX34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AY34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AZ34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BA34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BB34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BC34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BD34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BE34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BF34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BG34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BH34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BI34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BJ34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BK34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BL34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BM34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BN34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BO34" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" ht="12.6" spans="1:67">
+      <c r="A35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="O35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="P35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="R35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="T35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="U35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="V35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="W35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AB35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AC35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AD35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AF35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AG35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AH35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AI35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AJ35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AK35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AL35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AM35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AN35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AO35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AP35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AQ35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AR35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AS35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AT35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AU35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AV35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AW35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AX35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AY35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AZ35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BA35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BB35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BC35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BD35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BE35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BF35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BG35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BH35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BI35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BJ35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BK35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BL35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BM35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BN35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BO35" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" ht="12.6" spans="1:67">
+      <c r="A36" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="O36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="P36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="R36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="T36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="U36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="V36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="W36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AB36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AC36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AD36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AF36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AG36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AH36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AI36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AJ36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AK36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AL36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AM36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AN36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AO36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AP36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AQ36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AR36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AS36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AT36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AU36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AV36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AW36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AX36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AY36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AZ36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BA36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BB36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BC36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BD36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BE36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BF36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BG36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BH36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BI36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BJ36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BK36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BL36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BM36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BN36" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BO36" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" ht="12.6" spans="1:67">
+      <c r="A37" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="O37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="P37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="R37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="T37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="U37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="V37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="W37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AB37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AC37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AD37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AF37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AG37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AH37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AI37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AJ37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AK37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AL37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AM37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AN37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AO37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AP37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AQ37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AR37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AS37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AT37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AU37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AV37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AW37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AX37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AY37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AZ37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BA37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BB37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BC37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BD37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BE37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BF37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BG37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BH37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BI37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BJ37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BK37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BL37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BM37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BN37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BO37" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" ht="12.6" spans="1:67">
+      <c r="A38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="O38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="R38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="T38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="U38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="V38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="W38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AC38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AD38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AF38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AG38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AH38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AI38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AK38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AL38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AM38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AN38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AO38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AP38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AQ38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AR38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AS38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AT38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AU38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AV38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AW38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AX38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AY38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AZ38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BA38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BB38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BC38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BD38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BE38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BF38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BG38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BH38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BI38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BJ38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BK38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BL38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BM38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BN38" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BO38" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" ht="12.6" spans="1:67">
+      <c r="A39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="O39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="P39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="R39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="T39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="U39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="V39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="W39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AA39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AB39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AC39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AD39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AF39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AG39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AH39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AI39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AJ39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AK39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AL39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AM39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AN39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AO39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AP39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AQ39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AR39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AS39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AT39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AU39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AV39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AW39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AX39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AY39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AZ39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BA39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BB39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BC39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BD39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BE39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BF39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BG39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BH39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BI39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BJ39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BK39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BL39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BM39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BN39" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BO39" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" ht="12.6" spans="1:67">
+      <c r="A40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="O40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="P40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="R40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="T40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="U40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="V40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="W40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Z40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AB40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AC40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AD40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AF40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AG40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AH40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AI40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AK40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AL40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AM40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AN40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AO40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AP40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AQ40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AR40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AS40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AT40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AU40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AV40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AW40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AX40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AY40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AZ40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BA40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BB40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BC40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BD40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BE40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BF40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BG40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BH40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BI40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BJ40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BK40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BL40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BM40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BN40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BO40" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" ht="12.6" spans="1:67">
+      <c r="A41" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="O41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="P41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="R41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="T41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="U41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="V41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="W41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="X41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AA41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AB41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AC41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AD41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AF41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AG41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AH41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AI41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AJ41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AK41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AL41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AM41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AN41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AO41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AP41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AQ41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AR41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AS41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AT41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AU41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AV41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AW41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AX41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AY41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AZ41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BA41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BB41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BC41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BD41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BE41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BF41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BG41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BH41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BI41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BJ41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BK41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BL41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BM41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BN41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BO41" s="4">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" fitToHeight="0" fitToWidth="0" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
-  <headerFooter>
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" cellComments="asDisplayed"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:AMK1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0" tabSelected="1">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" style="2" width="7.83000560897436" customWidth="1"/>
-    <col min="2" max="2" style="2" width="11.109808493589744" customWidth="1"/>
-    <col min="3" max="1025" style="2" width="8.54996233974359" customWidth="1"/>
-    <col min="1026" max="16384" style="2" width="9.142307692307693"/>
+    <col min="1" max="1" width="7.83333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="8.5462962962963" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9.13888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" ht="20.25">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Polarimeter</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:1025" ht="20.25">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>V0</t>
-        </is>
+    <row r="2" ht="12.6" spans="1:2">
+      <c r="A2" t="s">
+        <v>110</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" ht="12.6" spans="1:2">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" ht="12.6" spans="1:2">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="12.6" spans="1:2">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" ht="12.6" spans="1:2">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="12.6" spans="1:2">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" ht="12.6" spans="1:2">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="12.6" spans="1:3">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" ht="12.6" spans="1:2">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="12.6" spans="1:2">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" ht="12.6" spans="1:2">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" ht="12.6" spans="1:2">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" ht="12.6" spans="1:2">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="12.6" spans="1:2">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" ht="12.6" spans="1:2">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" ht="12.6" spans="1:3">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" ht="12.6" spans="1:2">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" ht="12.6" spans="1:2">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" ht="12.6" spans="1:2">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" ht="12.6" spans="1:2">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" ht="12.6" spans="1:2">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" ht="12.6" spans="1:2">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" ht="12.6" spans="1:2">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" ht="12.6" spans="1:3">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" ht="12.6" spans="1:2">
+      <c r="A26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" ht="12.6" spans="1:2">
+      <c r="A27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" ht="12.6" spans="1:2">
+      <c r="A28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" ht="12.6" spans="1:2">
+      <c r="A29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="12.6" spans="1:2">
+      <c r="A30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" ht="12.6" spans="1:2">
+      <c r="A31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" ht="12.6" spans="1:2">
+      <c r="A32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" ht="12.6" spans="1:3">
+      <c r="A33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" ht="12.6" spans="1:2">
+      <c r="A34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" ht="12.6" spans="1:2">
+      <c r="A35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" ht="12.6" spans="1:2">
+      <c r="A36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" ht="12.6" spans="1:2">
+      <c r="A37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" ht="12.6" spans="1:2">
+      <c r="A38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" ht="12.6" spans="1:2">
+      <c r="A39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" ht="12.6" spans="1:2">
+      <c r="A40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" ht="12.6" spans="1:3">
+      <c r="A41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" ht="12.6" spans="1:2">
+      <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" ht="12.6" spans="1:2">
+      <c r="A43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" ht="12.6" spans="1:2">
+      <c r="A44" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" ht="12.6" spans="1:2">
+      <c r="A45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" ht="12.6" spans="1:2">
+      <c r="A46" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:1025" ht="20.25">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>V1</t>
-        </is>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
+    <row r="47" ht="12.6" spans="1:2">
+      <c r="A47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1025" ht="20.25">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>V2</t>
-        </is>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
+    <row r="48" ht="12.6" spans="1:2">
+      <c r="A48" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:1025" ht="20.25">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>V3</t>
-        </is>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
+    <row r="49" ht="12.6" spans="1:3">
+      <c r="A49" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:1025" ht="20.25">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>V4</t>
-        </is>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
+    <row r="50" ht="12.6" spans="1:2">
+      <c r="A50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:1025" ht="20.25">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>V5</t>
-        </is>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
+    <row r="51" ht="12.6" spans="1:2">
+      <c r="A51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:1025" ht="20.25">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>V6</t>
-        </is>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
+    <row r="52" ht="12.6" spans="1:2">
+      <c r="A52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1025" ht="20.25">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W4</t>
-        </is>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>(V7)</t>
-        </is>
+    <row r="53" ht="12.6" spans="1:2">
+      <c r="A53" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1025" ht="20.25">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>R0</t>
-        </is>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
+    <row r="54" ht="12.6" spans="1:2">
+      <c r="A54" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1025" ht="20.25">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>R1</t>
-        </is>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
+    <row r="55" ht="12.6" spans="1:2">
+      <c r="A55" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:1025" ht="20.25">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
+    <row r="56" ht="12.6" spans="1:2">
+      <c r="A56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1025" ht="20.25">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1025" ht="20.25">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>R4</t>
-        </is>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1025" ht="20.25">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1025" ht="20.25">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1025" ht="20.25">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W3</t>
-        </is>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>(R7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" spans="1:1025" ht="20.25">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>O0</t>
-        </is>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1025" ht="20.25">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>O1</t>
-        </is>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1025" ht="20.25">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>O2</t>
-        </is>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1025" ht="20.25">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>O3</t>
-        </is>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1025" ht="20.25">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>O4</t>
-        </is>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1025" ht="20.25">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>O5</t>
-        </is>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1025" ht="20.25">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>O6</t>
-        </is>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1025" ht="20.25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>W2</t>
-        </is>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>(O7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" spans="1:1025" ht="20.25">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Y0</t>
-        </is>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1025" ht="20.25">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Y1</t>
-        </is>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1025" ht="20.25">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Y2</t>
-        </is>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1025" ht="20.25">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Y3</t>
-        </is>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1025" ht="20.25">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Y4</t>
-        </is>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1025" ht="20.25">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Y5</t>
-        </is>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1025" ht="20.25">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Y6</t>
-        </is>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1025" ht="20.25">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>W1</t>
-        </is>
-      </c>
-      <c r="B33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>(Y7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" spans="1:1025" ht="20.25">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>G0</t>
-        </is>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1025" ht="20.25">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1025" ht="20.25">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="B36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1025" ht="20.25">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1025" ht="20.25">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1025" ht="20.25">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>G5</t>
-        </is>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1025" ht="20.25">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>G6</t>
-        </is>
-      </c>
-      <c r="B40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1025" ht="20.25">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>(G7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" spans="1:1025" ht="20.25">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1025" ht="20.25">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1025" ht="20.25">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="B44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1025" ht="20.25">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1025" ht="20.25">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="B46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1025" ht="20.25">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>B5</t>
-        </is>
-      </c>
-      <c r="B47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1025" ht="20.25">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>B6</t>
-        </is>
-      </c>
-      <c r="B48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1025" ht="20.25">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>W5</t>
-        </is>
-      </c>
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>(B7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="50" spans="1:1025" ht="20.25">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>I0</t>
-        </is>
-      </c>
-      <c r="B50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1025" ht="20.25">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>I1</t>
-        </is>
-      </c>
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1025" ht="20.25">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>I2</t>
-        </is>
-      </c>
-      <c r="B52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1025" ht="20.25">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>I3</t>
-        </is>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1025" ht="20.25">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>I4</t>
-        </is>
-      </c>
-      <c r="B54" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1025" ht="20.25">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>I5</t>
-        </is>
-      </c>
-      <c r="B55" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1025" ht="20.25">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>I6</t>
-        </is>
-      </c>
-      <c r="B56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1048576" spans="1:1025" ht="12.8"/>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" fitToHeight="0" fitToWidth="0" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" cellComments="asDisplayed"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/data/default_biases_cryo.xlsx
+++ b/data/default_biases_cryo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9168"/>
+    <workbookView windowWidth="11472" windowHeight="9216"/>
   </bookViews>
   <sheets>
     <sheet name="Biases" sheetId="1" r:id="rId1"/>
@@ -543,8 +543,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -567,10 +567,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -584,7 +599,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,9 +628,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,13 +674,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -628,16 +681,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,66 +712,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,6 +733,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -745,7 +751,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,13 +835,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,25 +871,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,109 +901,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,41 +942,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -996,7 +961,27 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1019,158 +1004,173 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1503,8 +1503,8 @@
   <sheetPr/>
   <dimension ref="A1:BO41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B30:BO41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1513,7 +1513,7 @@
     <col min="2" max="16384" width="9.13888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.6" spans="1:67">
+    <row r="1" ht="13.2" spans="1:67">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" ht="12.6" spans="1:67">
+    <row r="2" ht="13.2" spans="1:67">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="3" ht="12.6" spans="1:67">
+    <row r="3" ht="13.2" spans="1:67">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>900</v>
       </c>
       <c r="J3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K3">
         <v>900</v>
@@ -1969,13 +1969,13 @@
         <v>900</v>
       </c>
       <c r="Q3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="R3">
         <v>900</v>
       </c>
       <c r="S3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T3">
         <v>900</v>
@@ -1990,7 +1990,7 @@
         <v>900</v>
       </c>
       <c r="X3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Y3">
         <v>900</v>
@@ -2029,10 +2029,10 @@
         <v>900</v>
       </c>
       <c r="AK3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AL3">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="AM3">
         <v>900</v>
@@ -2041,88 +2041,88 @@
         <v>900</v>
       </c>
       <c r="AO3">
-        <v>890</v>
+        <v>1200</v>
       </c>
       <c r="AP3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="AQ3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="AR3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="AS3">
-        <v>900</v>
+        <v>1210</v>
       </c>
       <c r="AT3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="AU3">
-        <v>900</v>
+        <v>1210</v>
       </c>
       <c r="AV3">
-        <v>900</v>
+        <v>1210</v>
       </c>
       <c r="AW3">
-        <v>910</v>
+        <v>1210</v>
       </c>
       <c r="AX3">
-        <v>910</v>
+        <v>1210</v>
       </c>
       <c r="AY3">
-        <v>910</v>
+        <v>1210</v>
       </c>
       <c r="AZ3">
         <v>900</v>
       </c>
       <c r="BA3">
-        <v>910</v>
+        <v>1210</v>
       </c>
       <c r="BB3">
-        <v>900</v>
+        <v>1210</v>
       </c>
       <c r="BC3">
-        <v>910</v>
+        <v>1210</v>
       </c>
       <c r="BD3">
         <v>900</v>
       </c>
       <c r="BE3">
-        <v>910</v>
+        <v>1210</v>
       </c>
       <c r="BF3">
-        <v>501</v>
+        <v>440</v>
       </c>
       <c r="BG3">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="BH3">
-        <v>700</v>
+        <v>370</v>
       </c>
       <c r="BI3">
-        <v>213</v>
+        <v>348</v>
       </c>
       <c r="BJ3">
-        <v>504</v>
+        <v>411</v>
       </c>
       <c r="BK3">
-        <v>466</v>
+        <v>381</v>
       </c>
       <c r="BL3">
-        <v>496</v>
+        <v>401</v>
       </c>
       <c r="BM3">
-        <v>288</v>
+        <v>528</v>
       </c>
       <c r="BN3">
         <v>512</v>
       </c>
       <c r="BO3">
-        <v>399</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="4" ht="12.6" spans="1:67">
+    <row r="4" ht="13.2" spans="1:67">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>900</v>
       </c>
       <c r="J4">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="K4">
         <v>900</v>
@@ -2235,7 +2235,7 @@
         <v>700</v>
       </c>
       <c r="AL4">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="AM4">
         <v>900</v>
@@ -2244,55 +2244,55 @@
         <v>900</v>
       </c>
       <c r="AO4">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AP4">
-        <v>1200</v>
+        <v>910</v>
       </c>
       <c r="AQ4">
-        <v>1200</v>
+        <v>910</v>
       </c>
       <c r="AR4">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AS4">
-        <v>1210</v>
+        <v>900</v>
       </c>
       <c r="AT4">
-        <v>1200</v>
+        <v>910</v>
       </c>
       <c r="AU4">
-        <v>1210</v>
+        <v>910</v>
       </c>
       <c r="AV4">
-        <v>1210</v>
+        <v>950</v>
       </c>
       <c r="AW4">
-        <v>1210</v>
+        <v>930</v>
       </c>
       <c r="AX4">
-        <v>1210</v>
+        <v>910</v>
       </c>
       <c r="AY4">
-        <v>1210</v>
+        <v>910</v>
       </c>
       <c r="AZ4">
         <v>900</v>
       </c>
       <c r="BA4">
-        <v>1210</v>
+        <v>910</v>
       </c>
       <c r="BB4">
-        <v>1210</v>
+        <v>900</v>
       </c>
       <c r="BC4">
-        <v>1210</v>
+        <v>910</v>
       </c>
       <c r="BD4">
         <v>900</v>
       </c>
       <c r="BE4">
-        <v>1210</v>
+        <v>930</v>
       </c>
       <c r="BF4">
         <v>440</v>
@@ -2325,7 +2325,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" ht="12.6" spans="1:67">
+    <row r="5" ht="13.2" spans="1:67">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -2342,46 +2342,46 @@
         <v>900</v>
       </c>
       <c r="F5">
+        <v>700</v>
+      </c>
+      <c r="G5">
+        <v>900</v>
+      </c>
+      <c r="H5">
+        <v>900</v>
+      </c>
+      <c r="I5">
+        <v>900</v>
+      </c>
+      <c r="J5">
+        <v>900</v>
+      </c>
+      <c r="K5">
+        <v>900</v>
+      </c>
+      <c r="L5">
+        <v>900</v>
+      </c>
+      <c r="M5">
+        <v>900</v>
+      </c>
+      <c r="N5">
+        <v>900</v>
+      </c>
+      <c r="O5">
+        <v>900</v>
+      </c>
+      <c r="P5">
+        <v>900</v>
+      </c>
+      <c r="Q5">
         <v>600</v>
       </c>
-      <c r="G5">
-        <v>900</v>
-      </c>
-      <c r="H5">
-        <v>900</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5">
-        <v>900</v>
-      </c>
-      <c r="K5">
-        <v>900</v>
-      </c>
-      <c r="L5">
-        <v>900</v>
-      </c>
-      <c r="M5">
-        <v>900</v>
-      </c>
-      <c r="N5">
-        <v>900</v>
-      </c>
-      <c r="O5">
-        <v>900</v>
-      </c>
-      <c r="P5">
-        <v>900</v>
-      </c>
-      <c r="Q5">
-        <v>700</v>
-      </c>
       <c r="R5">
         <v>900</v>
       </c>
       <c r="S5">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T5">
         <v>900</v>
@@ -2435,7 +2435,7 @@
         <v>900</v>
       </c>
       <c r="AK5">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AL5">
         <v>750</v>
@@ -2447,55 +2447,55 @@
         <v>900</v>
       </c>
       <c r="AO5">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="AP5">
-        <v>1210</v>
+        <v>900</v>
       </c>
       <c r="AQ5">
-        <v>1220</v>
+        <v>930</v>
       </c>
       <c r="AR5">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AS5">
-        <v>1200</v>
+        <v>930</v>
       </c>
       <c r="AT5">
-        <v>1210</v>
+        <v>900</v>
       </c>
       <c r="AU5">
-        <v>1210</v>
+        <v>900</v>
       </c>
       <c r="AV5">
-        <v>1210</v>
+        <v>920</v>
       </c>
       <c r="AW5">
-        <v>1210</v>
+        <v>910</v>
       </c>
       <c r="AX5">
-        <v>1210</v>
+        <v>910</v>
       </c>
       <c r="AY5">
-        <v>1210</v>
+        <v>910</v>
       </c>
       <c r="AZ5">
         <v>900</v>
       </c>
       <c r="BA5">
-        <v>1210</v>
+        <v>930</v>
       </c>
       <c r="BB5">
-        <v>1210</v>
+        <v>900</v>
       </c>
       <c r="BC5">
-        <v>1210</v>
+        <v>930</v>
       </c>
       <c r="BD5">
         <v>900</v>
       </c>
       <c r="BE5">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="BF5">
         <v>401</v>
@@ -2528,7 +2528,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" ht="12.6" spans="1:67">
+    <row r="6" ht="13.2" spans="1:67">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>900</v>
       </c>
       <c r="F6">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G6">
         <v>900</v>
@@ -2557,7 +2557,7 @@
         <v>900</v>
       </c>
       <c r="J6">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K6">
         <v>900</v>
@@ -2638,10 +2638,10 @@
         <v>900</v>
       </c>
       <c r="AK6">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AL6">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="AM6">
         <v>900</v>
@@ -2650,88 +2650,88 @@
         <v>900</v>
       </c>
       <c r="AO6">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="AP6">
-        <v>910</v>
+        <v>1210</v>
       </c>
       <c r="AQ6">
-        <v>910</v>
+        <v>1220</v>
       </c>
       <c r="AR6">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="AS6">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="AT6">
-        <v>910</v>
+        <v>1210</v>
       </c>
       <c r="AU6">
-        <v>910</v>
+        <v>1210</v>
       </c>
       <c r="AV6">
-        <v>950</v>
+        <v>1210</v>
       </c>
       <c r="AW6">
-        <v>930</v>
+        <v>1210</v>
       </c>
       <c r="AX6">
-        <v>910</v>
+        <v>1210</v>
       </c>
       <c r="AY6">
-        <v>910</v>
+        <v>1210</v>
       </c>
       <c r="AZ6">
         <v>900</v>
       </c>
       <c r="BA6">
-        <v>910</v>
+        <v>1210</v>
       </c>
       <c r="BB6">
-        <v>900</v>
+        <v>1210</v>
       </c>
       <c r="BC6">
-        <v>910</v>
+        <v>1210</v>
       </c>
       <c r="BD6">
         <v>900</v>
       </c>
       <c r="BE6">
-        <v>930</v>
+        <v>1200</v>
       </c>
       <c r="BF6">
-        <v>440</v>
+        <v>401</v>
       </c>
       <c r="BG6">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="BH6">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="BI6">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="BJ6">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="BK6">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="BL6">
-        <v>401</v>
+        <v>544</v>
       </c>
       <c r="BM6">
-        <v>528</v>
+        <v>398</v>
       </c>
       <c r="BN6">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="BO6">
-        <v>309</v>
+        <v>380</v>
       </c>
     </row>
-    <row r="7" ht="12.6" spans="1:67">
+    <row r="7" ht="13.2" spans="1:67">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>900</v>
       </c>
       <c r="J7">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K7">
         <v>900</v>
@@ -2802,7 +2802,7 @@
         <v>900</v>
       </c>
       <c r="X7">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="Y7">
         <v>900</v>
@@ -2841,10 +2841,10 @@
         <v>900</v>
       </c>
       <c r="AK7">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AL7">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="AM7">
         <v>900</v>
@@ -2853,19 +2853,19 @@
         <v>900</v>
       </c>
       <c r="AO7">
-        <v>920</v>
+        <v>890</v>
       </c>
       <c r="AP7">
         <v>900</v>
       </c>
       <c r="AQ7">
-        <v>930</v>
+        <v>900</v>
       </c>
       <c r="AR7">
         <v>900</v>
       </c>
       <c r="AS7">
-        <v>930</v>
+        <v>900</v>
       </c>
       <c r="AT7">
         <v>900</v>
@@ -2874,7 +2874,7 @@
         <v>900</v>
       </c>
       <c r="AV7">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="AW7">
         <v>910</v>
@@ -2889,52 +2889,52 @@
         <v>900</v>
       </c>
       <c r="BA7">
-        <v>930</v>
+        <v>910</v>
       </c>
       <c r="BB7">
         <v>900</v>
       </c>
       <c r="BC7">
-        <v>930</v>
+        <v>910</v>
       </c>
       <c r="BD7">
         <v>900</v>
       </c>
       <c r="BE7">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="BF7">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="BG7">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BH7">
-        <v>405</v>
+        <v>700</v>
       </c>
       <c r="BI7">
-        <v>371</v>
+        <v>213</v>
       </c>
       <c r="BJ7">
-        <v>412</v>
+        <v>504</v>
       </c>
       <c r="BK7">
-        <v>361</v>
+        <v>466</v>
       </c>
       <c r="BL7">
-        <v>544</v>
+        <v>496</v>
       </c>
       <c r="BM7">
-        <v>398</v>
+        <v>288</v>
       </c>
       <c r="BN7">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="BO7">
-        <v>380</v>
+        <v>399</v>
       </c>
     </row>
-    <row r="8" ht="12.6" spans="1:67">
+    <row r="8" ht="13.2" spans="1:67">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -3137,380 +3137,380 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" ht="12.6" spans="1:67">
+    <row r="9" ht="13.2" spans="1:67">
       <c r="A9" t="s">
         <v>74</v>
       </c>
       <c r="B9">
+        <v>256</v>
+      </c>
+      <c r="C9">
+        <v>360</v>
+      </c>
+      <c r="D9">
+        <v>396</v>
+      </c>
+      <c r="E9">
+        <v>439</v>
+      </c>
+      <c r="F9">
+        <v>260</v>
+      </c>
+      <c r="G9">
+        <v>180</v>
+      </c>
+      <c r="H9">
+        <v>250</v>
+      </c>
+      <c r="I9">
+        <v>500</v>
+      </c>
+      <c r="J9">
+        <v>506</v>
+      </c>
+      <c r="K9">
+        <v>260</v>
+      </c>
+      <c r="L9">
+        <v>500</v>
+      </c>
+      <c r="M9">
+        <v>480</v>
+      </c>
+      <c r="N9">
+        <v>602</v>
+      </c>
+      <c r="O9">
+        <v>282</v>
+      </c>
+      <c r="P9">
+        <v>202</v>
+      </c>
+      <c r="Q9">
+        <v>552</v>
+      </c>
+      <c r="R9">
+        <v>552</v>
+      </c>
+      <c r="S9">
+        <v>-220</v>
+      </c>
+      <c r="T9">
+        <v>348</v>
+      </c>
+      <c r="U9">
+        <v>259</v>
+      </c>
+      <c r="V9">
+        <v>376</v>
+      </c>
+      <c r="W9">
+        <v>222</v>
+      </c>
+      <c r="X9">
         <v>300</v>
       </c>
-      <c r="C9">
-        <v>-270</v>
-      </c>
-      <c r="D9">
-        <v>323</v>
-      </c>
-      <c r="E9">
-        <v>160</v>
-      </c>
-      <c r="F9">
-        <v>80</v>
-      </c>
-      <c r="G9">
+      <c r="Y9">
+        <v>254</v>
+      </c>
+      <c r="Z9">
+        <v>504</v>
+      </c>
+      <c r="AA9">
+        <v>461</v>
+      </c>
+      <c r="AB9">
+        <v>229</v>
+      </c>
+      <c r="AC9">
+        <v>303</v>
+      </c>
+      <c r="AD9">
+        <v>308</v>
+      </c>
+      <c r="AE9">
+        <v>153</v>
+      </c>
+      <c r="AF9">
+        <v>195</v>
+      </c>
+      <c r="AG9">
+        <v>204</v>
+      </c>
+      <c r="AH9">
+        <v>222</v>
+      </c>
+      <c r="AI9">
+        <v>472</v>
+      </c>
+      <c r="AJ9">
+        <v>215</v>
+      </c>
+      <c r="AK9">
+        <v>360</v>
+      </c>
+      <c r="AL9">
+        <v>254</v>
+      </c>
+      <c r="AM9">
+        <v>372</v>
+      </c>
+      <c r="AN9">
+        <v>506</v>
+      </c>
+      <c r="AO9">
+        <v>208</v>
+      </c>
+      <c r="AP9">
+        <v>193</v>
+      </c>
+      <c r="AQ9">
+        <v>-192</v>
+      </c>
+      <c r="AR9">
+        <v>-57</v>
+      </c>
+      <c r="AS9">
+        <v>383</v>
+      </c>
+      <c r="AT9">
+        <v>272</v>
+      </c>
+      <c r="AU9">
+        <v>274</v>
+      </c>
+      <c r="AV9">
+        <v>428</v>
+      </c>
+      <c r="AW9">
+        <v>247</v>
+      </c>
+      <c r="AX9">
+        <v>221</v>
+      </c>
+      <c r="AY9">
+        <v>42</v>
+      </c>
+      <c r="AZ9">
+        <v>261</v>
+      </c>
+      <c r="BA9">
+        <v>-108</v>
+      </c>
+      <c r="BB9">
+        <v>-9</v>
+      </c>
+      <c r="BC9">
+        <v>9</v>
+      </c>
+      <c r="BD9">
+        <v>120</v>
+      </c>
+      <c r="BE9">
+        <v>139</v>
+      </c>
+      <c r="BF9">
+        <v>509</v>
+      </c>
+      <c r="BG9">
+        <v>342</v>
+      </c>
+      <c r="BH9">
         <v>280</v>
       </c>
-      <c r="H9">
-        <v>370</v>
-      </c>
-      <c r="I9">
-        <v>60</v>
-      </c>
-      <c r="J9">
-        <v>579</v>
-      </c>
-      <c r="K9">
-        <v>210</v>
-      </c>
-      <c r="L9">
-        <v>330</v>
-      </c>
-      <c r="M9">
-        <v>264</v>
-      </c>
-      <c r="N9">
-        <v>597</v>
-      </c>
-      <c r="O9">
-        <v>-352</v>
-      </c>
-      <c r="P9">
-        <v>24</v>
-      </c>
-      <c r="Q9">
-        <v>-43</v>
-      </c>
-      <c r="R9">
-        <v>329</v>
-      </c>
-      <c r="S9">
-        <v>240</v>
-      </c>
-      <c r="T9">
-        <v>270</v>
-      </c>
-      <c r="U9">
-        <v>-332</v>
-      </c>
-      <c r="V9">
-        <v>179</v>
-      </c>
-      <c r="W9">
-        <v>-105</v>
-      </c>
-      <c r="X9">
-        <v>30</v>
-      </c>
-      <c r="Y9">
-        <v>60</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>48</v>
-      </c>
-      <c r="AB9">
-        <v>61</v>
-      </c>
-      <c r="AC9">
-        <v>51</v>
-      </c>
-      <c r="AD9">
-        <v>-52</v>
-      </c>
-      <c r="AE9">
-        <v>202</v>
-      </c>
-      <c r="AF9">
-        <v>120</v>
-      </c>
-      <c r="AG9">
-        <v>120</v>
-      </c>
-      <c r="AH9">
-        <v>-280</v>
-      </c>
-      <c r="AI9">
-        <v>35</v>
-      </c>
-      <c r="AJ9">
-        <v>56</v>
-      </c>
-      <c r="AK9">
-        <v>-140</v>
-      </c>
-      <c r="AL9">
-        <v>-13</v>
-      </c>
-      <c r="AM9">
-        <v>82</v>
-      </c>
-      <c r="AN9">
-        <v>60</v>
-      </c>
-      <c r="AO9">
-        <v>-91</v>
-      </c>
-      <c r="AP9">
-        <v>142</v>
-      </c>
-      <c r="AQ9">
-        <v>56</v>
-      </c>
-      <c r="AR9">
-        <v>370</v>
-      </c>
-      <c r="AS9">
-        <v>251</v>
-      </c>
-      <c r="AT9">
-        <v>53</v>
-      </c>
-      <c r="AU9">
-        <v>121</v>
-      </c>
-      <c r="AV9">
-        <v>341</v>
-      </c>
-      <c r="AW9">
-        <v>163</v>
-      </c>
-      <c r="AX9">
-        <v>418</v>
-      </c>
-      <c r="AY9">
-        <v>503</v>
-      </c>
-      <c r="AZ9">
-        <v>164</v>
-      </c>
-      <c r="BA9">
-        <v>419</v>
-      </c>
-      <c r="BB9">
-        <v>270</v>
-      </c>
-      <c r="BC9">
-        <v>331</v>
-      </c>
-      <c r="BD9">
-        <v>200</v>
-      </c>
-      <c r="BE9">
-        <v>124</v>
-      </c>
-      <c r="BF9">
-        <v>369</v>
-      </c>
-      <c r="BG9">
-        <v>376</v>
-      </c>
-      <c r="BH9">
-        <v>153</v>
-      </c>
       <c r="BI9">
-        <v>309</v>
+        <v>581</v>
       </c>
       <c r="BJ9">
-        <v>199</v>
+        <v>532</v>
       </c>
       <c r="BK9">
-        <v>285</v>
+        <v>358</v>
       </c>
       <c r="BL9">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="BM9">
-        <v>277</v>
+        <v>194</v>
       </c>
       <c r="BN9">
-        <v>339</v>
+        <v>154</v>
       </c>
       <c r="BO9">
-        <v>202</v>
+        <v>260</v>
       </c>
     </row>
-    <row r="10" ht="12.6" spans="1:67">
+    <row r="10" ht="13.2" spans="1:67">
       <c r="A10" t="s">
         <v>75</v>
       </c>
       <c r="B10">
-        <v>256</v>
+        <v>123</v>
       </c>
       <c r="C10">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="D10">
+        <v>344</v>
+      </c>
+      <c r="E10">
+        <v>-282</v>
+      </c>
+      <c r="F10">
+        <v>-380</v>
+      </c>
+      <c r="G10">
+        <v>140</v>
+      </c>
+      <c r="H10">
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>289</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>-60</v>
+      </c>
+      <c r="M10">
+        <v>98</v>
+      </c>
+      <c r="N10">
+        <v>61</v>
+      </c>
+      <c r="O10">
+        <v>-28</v>
+      </c>
+      <c r="P10">
+        <v>-107</v>
+      </c>
+      <c r="Q10">
+        <v>-130</v>
+      </c>
+      <c r="R10">
+        <v>399</v>
+      </c>
+      <c r="S10">
+        <v>218</v>
+      </c>
+      <c r="T10">
+        <v>373</v>
+      </c>
+      <c r="U10">
+        <v>420</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>-98</v>
+      </c>
+      <c r="X10">
+        <v>-244</v>
+      </c>
+      <c r="Y10">
+        <v>78</v>
+      </c>
+      <c r="Z10">
+        <v>157</v>
+      </c>
+      <c r="AA10">
+        <v>-200</v>
+      </c>
+      <c r="AB10">
+        <v>369</v>
+      </c>
+      <c r="AC10">
+        <v>-141</v>
+      </c>
+      <c r="AD10">
+        <v>116</v>
+      </c>
+      <c r="AE10">
+        <v>65</v>
+      </c>
+      <c r="AF10">
+        <v>-140</v>
+      </c>
+      <c r="AG10">
+        <v>40</v>
+      </c>
+      <c r="AH10">
+        <v>139</v>
+      </c>
+      <c r="AI10">
+        <v>171</v>
+      </c>
+      <c r="AJ10">
+        <v>240</v>
+      </c>
+      <c r="AK10">
+        <v>145</v>
+      </c>
+      <c r="AL10">
+        <v>-35</v>
+      </c>
+      <c r="AM10">
+        <v>5</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>100</v>
+      </c>
+      <c r="AP10">
+        <v>395</v>
+      </c>
+      <c r="AQ10">
         <v>396</v>
       </c>
-      <c r="E10">
-        <v>439</v>
-      </c>
-      <c r="F10">
-        <v>260</v>
-      </c>
-      <c r="G10">
-        <v>180</v>
-      </c>
-      <c r="H10">
-        <v>250</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10">
-        <v>506</v>
-      </c>
-      <c r="K10">
-        <v>260</v>
-      </c>
-      <c r="L10">
-        <v>500</v>
-      </c>
-      <c r="M10">
-        <v>480</v>
-      </c>
-      <c r="N10">
-        <v>602</v>
-      </c>
-      <c r="O10">
-        <v>282</v>
-      </c>
-      <c r="P10">
-        <v>202</v>
-      </c>
-      <c r="Q10">
-        <v>552</v>
-      </c>
-      <c r="R10">
-        <v>552</v>
-      </c>
-      <c r="S10">
-        <v>-220</v>
-      </c>
-      <c r="T10">
-        <v>348</v>
-      </c>
-      <c r="U10">
-        <v>259</v>
-      </c>
-      <c r="V10">
-        <v>376</v>
-      </c>
-      <c r="W10">
-        <v>222</v>
-      </c>
-      <c r="X10">
-        <v>300</v>
-      </c>
-      <c r="Y10">
-        <v>254</v>
-      </c>
-      <c r="Z10">
-        <v>504</v>
-      </c>
-      <c r="AA10">
-        <v>461</v>
-      </c>
-      <c r="AB10">
-        <v>229</v>
-      </c>
-      <c r="AC10">
-        <v>303</v>
-      </c>
-      <c r="AD10">
-        <v>308</v>
-      </c>
-      <c r="AE10">
-        <v>153</v>
-      </c>
-      <c r="AF10">
-        <v>195</v>
-      </c>
-      <c r="AG10">
-        <v>204</v>
-      </c>
-      <c r="AH10">
-        <v>222</v>
-      </c>
-      <c r="AI10">
-        <v>472</v>
-      </c>
-      <c r="AJ10">
-        <v>215</v>
-      </c>
-      <c r="AK10">
-        <v>360</v>
-      </c>
-      <c r="AL10">
-        <v>254</v>
-      </c>
-      <c r="AM10">
-        <v>372</v>
-      </c>
-      <c r="AN10">
-        <v>506</v>
-      </c>
-      <c r="AO10">
-        <v>208</v>
-      </c>
-      <c r="AP10">
-        <v>193</v>
-      </c>
-      <c r="AQ10">
-        <v>-192</v>
-      </c>
       <c r="AR10">
-        <v>-57</v>
+        <v>400</v>
       </c>
       <c r="AS10">
-        <v>383</v>
+        <v>159</v>
       </c>
       <c r="AT10">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="AU10">
-        <v>274</v>
+        <v>201</v>
       </c>
       <c r="AV10">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="AW10">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="AX10">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="AY10">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="AZ10">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="BA10">
-        <v>-108</v>
+        <v>240</v>
       </c>
       <c r="BB10">
-        <v>-9</v>
+        <v>236</v>
       </c>
       <c r="BC10">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="BD10">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="BE10">
-        <v>139</v>
+        <v>438</v>
       </c>
       <c r="BF10">
         <v>509</v>
@@ -3528,192 +3528,192 @@
         <v>532</v>
       </c>
       <c r="BK10">
-        <v>358</v>
+        <v>254</v>
       </c>
       <c r="BL10">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="BM10">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="BN10">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="BO10">
-        <v>260</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="11" ht="12.6" spans="1:67">
+    <row r="11" ht="13.2" spans="1:67">
       <c r="A11" t="s">
         <v>76</v>
       </c>
       <c r="B11">
-        <v>267</v>
+        <v>204</v>
       </c>
       <c r="C11">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D11">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="E11">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="F11">
+        <v>-100</v>
+      </c>
+      <c r="G11">
+        <v>120</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>420</v>
+      </c>
+      <c r="J11">
+        <v>368</v>
+      </c>
+      <c r="K11">
+        <v>77</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>159</v>
+      </c>
+      <c r="N11">
+        <v>194</v>
+      </c>
+      <c r="O11">
+        <v>76</v>
+      </c>
+      <c r="P11">
+        <v>-60</v>
+      </c>
+      <c r="Q11">
+        <v>-390</v>
+      </c>
+      <c r="R11">
+        <v>259</v>
+      </c>
+      <c r="S11">
+        <v>210</v>
+      </c>
+      <c r="T11">
+        <v>485</v>
+      </c>
+      <c r="U11">
+        <v>429</v>
+      </c>
+      <c r="V11">
+        <v>-187</v>
+      </c>
+      <c r="W11">
+        <v>154</v>
+      </c>
+      <c r="X11">
+        <v>-77</v>
+      </c>
+      <c r="Y11">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>600</v>
-      </c>
-      <c r="H11">
-        <v>286</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11">
-        <v>460</v>
-      </c>
-      <c r="K11">
-        <v>440</v>
-      </c>
-      <c r="L11">
-        <v>500</v>
-      </c>
-      <c r="M11">
-        <v>600</v>
-      </c>
-      <c r="N11">
-        <v>251</v>
-      </c>
-      <c r="O11">
-        <v>-41</v>
-      </c>
-      <c r="P11">
-        <v>73</v>
-      </c>
-      <c r="Q11">
-        <v>300</v>
-      </c>
-      <c r="R11">
-        <v>237</v>
-      </c>
-      <c r="S11">
-        <v>-272</v>
-      </c>
-      <c r="T11">
-        <v>495</v>
-      </c>
-      <c r="U11">
-        <v>197</v>
-      </c>
-      <c r="V11">
-        <v>311</v>
-      </c>
-      <c r="W11">
-        <v>326</v>
-      </c>
-      <c r="X11">
-        <v>260</v>
-      </c>
-      <c r="Y11">
-        <v>270</v>
-      </c>
       <c r="Z11">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>362</v>
+        <v>202</v>
       </c>
       <c r="AB11">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="AC11">
+        <v>92</v>
+      </c>
+      <c r="AD11">
+        <v>131</v>
+      </c>
+      <c r="AE11">
+        <v>-155</v>
+      </c>
+      <c r="AF11">
+        <v>-290</v>
+      </c>
+      <c r="AG11">
+        <v>-300</v>
+      </c>
+      <c r="AH11">
+        <v>203</v>
+      </c>
+      <c r="AI11">
+        <v>-0.7</v>
+      </c>
+      <c r="AJ11">
+        <v>-40</v>
+      </c>
+      <c r="AK11">
+        <v>-140</v>
+      </c>
+      <c r="AL11">
+        <v>133</v>
+      </c>
+      <c r="AM11">
+        <v>20</v>
+      </c>
+      <c r="AN11">
+        <v>135</v>
+      </c>
+      <c r="AO11">
+        <v>299</v>
+      </c>
+      <c r="AP11">
+        <v>399</v>
+      </c>
+      <c r="AQ11">
         <v>418</v>
       </c>
-      <c r="AD11">
-        <v>239</v>
-      </c>
-      <c r="AE11">
-        <v>134</v>
-      </c>
-      <c r="AF11">
-        <v>128</v>
-      </c>
-      <c r="AG11">
-        <v>204</v>
-      </c>
-      <c r="AH11">
-        <v>297</v>
-      </c>
-      <c r="AI11">
-        <v>302</v>
-      </c>
-      <c r="AJ11">
-        <v>100</v>
-      </c>
-      <c r="AK11">
-        <v>385</v>
-      </c>
-      <c r="AL11">
-        <v>277</v>
-      </c>
-      <c r="AM11">
-        <v>440</v>
-      </c>
-      <c r="AN11">
-        <v>300</v>
-      </c>
-      <c r="AO11">
-        <v>190</v>
-      </c>
-      <c r="AP11">
-        <v>372</v>
-      </c>
-      <c r="AQ11">
-        <v>-225</v>
-      </c>
       <c r="AR11">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="AS11">
-        <v>-87</v>
+        <v>265</v>
       </c>
       <c r="AT11">
-        <v>164</v>
+        <v>434</v>
       </c>
       <c r="AU11">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="AV11">
-        <v>504</v>
+        <v>181</v>
       </c>
       <c r="AW11">
-        <v>317</v>
+        <v>97</v>
       </c>
       <c r="AX11">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="AY11">
-        <v>119</v>
+        <v>320</v>
       </c>
       <c r="AZ11">
-        <v>435</v>
+        <v>183</v>
       </c>
       <c r="BA11">
-        <v>528</v>
+        <v>283</v>
       </c>
       <c r="BB11">
-        <v>42</v>
+        <v>295</v>
       </c>
       <c r="BC11">
-        <v>-56</v>
+        <v>374</v>
       </c>
       <c r="BD11">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="BE11">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="BF11">
         <v>518</v>
@@ -3731,428 +3731,428 @@
         <v>496</v>
       </c>
       <c r="BK11">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="BL11">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="BM11">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="BN11">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="BO11">
-        <v>288</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="12" ht="12.6" spans="1:67">
+    <row r="12" ht="13.2" spans="1:67">
       <c r="A12" t="s">
         <v>77</v>
       </c>
       <c r="B12">
-        <v>123</v>
+        <v>267</v>
       </c>
       <c r="C12">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="D12">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="E12">
-        <v>-282</v>
+        <v>278</v>
       </c>
       <c r="F12">
-        <v>-380</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="H12">
-        <v>90</v>
+        <v>286</v>
       </c>
       <c r="I12">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="J12">
-        <v>289</v>
+        <v>460</v>
       </c>
       <c r="K12">
+        <v>440</v>
+      </c>
+      <c r="L12">
+        <v>500</v>
+      </c>
+      <c r="M12">
+        <v>600</v>
+      </c>
+      <c r="N12">
+        <v>251</v>
+      </c>
+      <c r="O12">
+        <v>-41</v>
+      </c>
+      <c r="P12">
+        <v>73</v>
+      </c>
+      <c r="Q12">
+        <v>300</v>
+      </c>
+      <c r="R12">
+        <v>237</v>
+      </c>
+      <c r="S12">
+        <v>-272</v>
+      </c>
+      <c r="T12">
+        <v>495</v>
+      </c>
+      <c r="U12">
+        <v>197</v>
+      </c>
+      <c r="V12">
+        <v>311</v>
+      </c>
+      <c r="W12">
+        <v>326</v>
+      </c>
+      <c r="X12">
+        <v>260</v>
+      </c>
+      <c r="Y12">
+        <v>270</v>
+      </c>
+      <c r="Z12">
+        <v>119</v>
+      </c>
+      <c r="AA12">
+        <v>362</v>
+      </c>
+      <c r="AB12">
+        <v>237</v>
+      </c>
+      <c r="AC12">
+        <v>418</v>
+      </c>
+      <c r="AD12">
+        <v>239</v>
+      </c>
+      <c r="AE12">
+        <v>134</v>
+      </c>
+      <c r="AF12">
+        <v>128</v>
+      </c>
+      <c r="AG12">
+        <v>204</v>
+      </c>
+      <c r="AH12">
+        <v>297</v>
+      </c>
+      <c r="AI12">
+        <v>302</v>
+      </c>
+      <c r="AJ12">
         <v>100</v>
       </c>
-      <c r="L12">
-        <v>-60</v>
-      </c>
-      <c r="M12">
-        <v>98</v>
-      </c>
-      <c r="N12">
-        <v>61</v>
-      </c>
-      <c r="O12">
-        <v>-28</v>
-      </c>
-      <c r="P12">
-        <v>-107</v>
-      </c>
-      <c r="Q12">
-        <v>-130</v>
-      </c>
-      <c r="R12">
-        <v>399</v>
-      </c>
-      <c r="S12">
-        <v>218</v>
-      </c>
-      <c r="T12">
-        <v>373</v>
-      </c>
-      <c r="U12">
-        <v>420</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>-98</v>
-      </c>
-      <c r="X12">
-        <v>-244</v>
-      </c>
-      <c r="Y12">
-        <v>78</v>
-      </c>
-      <c r="Z12">
-        <v>157</v>
-      </c>
-      <c r="AA12">
-        <v>-200</v>
-      </c>
-      <c r="AB12">
-        <v>369</v>
-      </c>
-      <c r="AC12">
-        <v>-141</v>
-      </c>
-      <c r="AD12">
+      <c r="AK12">
+        <v>385</v>
+      </c>
+      <c r="AL12">
+        <v>277</v>
+      </c>
+      <c r="AM12">
+        <v>440</v>
+      </c>
+      <c r="AN12">
+        <v>300</v>
+      </c>
+      <c r="AO12">
+        <v>190</v>
+      </c>
+      <c r="AP12">
+        <v>372</v>
+      </c>
+      <c r="AQ12">
+        <v>-225</v>
+      </c>
+      <c r="AR12">
+        <v>80</v>
+      </c>
+      <c r="AS12">
+        <v>-87</v>
+      </c>
+      <c r="AT12">
+        <v>164</v>
+      </c>
+      <c r="AU12">
+        <v>222</v>
+      </c>
+      <c r="AV12">
+        <v>504</v>
+      </c>
+      <c r="AW12">
+        <v>317</v>
+      </c>
+      <c r="AX12">
+        <v>310</v>
+      </c>
+      <c r="AY12">
+        <v>119</v>
+      </c>
+      <c r="AZ12">
+        <v>435</v>
+      </c>
+      <c r="BA12">
+        <v>528</v>
+      </c>
+      <c r="BB12">
+        <v>42</v>
+      </c>
+      <c r="BC12">
+        <v>-56</v>
+      </c>
+      <c r="BD12">
+        <v>100</v>
+      </c>
+      <c r="BE12">
+        <v>278</v>
+      </c>
+      <c r="BF12">
+        <v>518</v>
+      </c>
+      <c r="BG12">
+        <v>356</v>
+      </c>
+      <c r="BH12">
+        <v>210</v>
+      </c>
+      <c r="BI12">
+        <v>730</v>
+      </c>
+      <c r="BJ12">
+        <v>496</v>
+      </c>
+      <c r="BK12">
+        <v>219</v>
+      </c>
+      <c r="BL12">
+        <v>91</v>
+      </c>
+      <c r="BM12">
         <v>116</v>
       </c>
-      <c r="AE12">
-        <v>65</v>
-      </c>
-      <c r="AF12">
-        <v>-140</v>
-      </c>
-      <c r="AG12">
-        <v>40</v>
-      </c>
-      <c r="AH12">
-        <v>139</v>
-      </c>
-      <c r="AI12">
-        <v>171</v>
-      </c>
-      <c r="AJ12">
-        <v>240</v>
-      </c>
-      <c r="AK12">
-        <v>145</v>
-      </c>
-      <c r="AL12">
-        <v>-35</v>
-      </c>
-      <c r="AM12">
-        <v>5</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>100</v>
-      </c>
-      <c r="AP12">
-        <v>395</v>
-      </c>
-      <c r="AQ12">
-        <v>396</v>
-      </c>
-      <c r="AR12">
-        <v>400</v>
-      </c>
-      <c r="AS12">
-        <v>159</v>
-      </c>
-      <c r="AT12">
-        <v>316</v>
-      </c>
-      <c r="AU12">
-        <v>201</v>
-      </c>
-      <c r="AV12">
-        <v>453</v>
-      </c>
-      <c r="AW12">
-        <v>85</v>
-      </c>
-      <c r="AX12">
-        <v>283</v>
-      </c>
-      <c r="AY12">
-        <v>315</v>
-      </c>
-      <c r="AZ12">
-        <v>220</v>
-      </c>
-      <c r="BA12">
-        <v>240</v>
-      </c>
-      <c r="BB12">
-        <v>236</v>
-      </c>
-      <c r="BC12">
-        <v>245</v>
-      </c>
-      <c r="BD12">
-        <v>320</v>
-      </c>
-      <c r="BE12">
-        <v>438</v>
-      </c>
-      <c r="BF12">
-        <v>509</v>
-      </c>
-      <c r="BG12">
-        <v>342</v>
-      </c>
-      <c r="BH12">
-        <v>280</v>
-      </c>
-      <c r="BI12">
-        <v>581</v>
-      </c>
-      <c r="BJ12">
-        <v>532</v>
-      </c>
-      <c r="BK12">
-        <v>254</v>
-      </c>
-      <c r="BL12">
-        <v>267</v>
-      </c>
-      <c r="BM12">
-        <v>131</v>
-      </c>
       <c r="BN12">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="BO12">
-        <v>226</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="13" ht="12.6" spans="1:67">
+    <row r="13" ht="13.2" spans="1:67">
       <c r="A13" t="s">
         <v>78</v>
       </c>
       <c r="B13">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="C13">
-        <v>300</v>
+        <v>-270</v>
       </c>
       <c r="D13">
-        <v>194</v>
+        <v>323</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="F13">
-        <v>-100</v>
+        <v>80</v>
       </c>
       <c r="G13">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>370</v>
       </c>
       <c r="I13">
-        <v>420</v>
+        <v>60</v>
       </c>
       <c r="J13">
-        <v>368</v>
+        <v>579</v>
       </c>
       <c r="K13">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="M13">
-        <v>159</v>
+        <v>264</v>
       </c>
       <c r="N13">
-        <v>194</v>
+        <v>597</v>
       </c>
       <c r="O13">
-        <v>76</v>
+        <v>-352</v>
       </c>
       <c r="P13">
-        <v>-60</v>
+        <v>24</v>
       </c>
       <c r="Q13">
-        <v>-390</v>
+        <v>-43</v>
       </c>
       <c r="R13">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="S13">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="T13">
-        <v>485</v>
+        <v>270</v>
       </c>
       <c r="U13">
-        <v>429</v>
+        <v>-332</v>
       </c>
       <c r="V13">
-        <v>-187</v>
+        <v>179</v>
       </c>
       <c r="W13">
-        <v>154</v>
+        <v>-105</v>
       </c>
       <c r="X13">
-        <v>-77</v>
+        <v>30</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13">
+        <v>48</v>
+      </c>
+      <c r="AB13">
+        <v>61</v>
+      </c>
+      <c r="AC13">
+        <v>51</v>
+      </c>
+      <c r="AD13">
+        <v>-52</v>
+      </c>
+      <c r="AE13">
         <v>202</v>
       </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>92</v>
-      </c>
-      <c r="AD13">
-        <v>131</v>
-      </c>
-      <c r="AE13">
-        <v>-155</v>
-      </c>
       <c r="AF13">
-        <v>-290</v>
+        <v>120</v>
       </c>
       <c r="AG13">
-        <v>-300</v>
+        <v>120</v>
       </c>
       <c r="AH13">
-        <v>203</v>
+        <v>-280</v>
       </c>
       <c r="AI13">
-        <v>-0.7</v>
+        <v>35</v>
       </c>
       <c r="AJ13">
-        <v>-40</v>
+        <v>56</v>
       </c>
       <c r="AK13">
         <v>-140</v>
       </c>
       <c r="AL13">
-        <v>133</v>
+        <v>-13</v>
       </c>
       <c r="AM13">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="AN13">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="AO13">
-        <v>299</v>
+        <v>-91</v>
       </c>
       <c r="AP13">
-        <v>399</v>
+        <v>142</v>
       </c>
       <c r="AQ13">
+        <v>56</v>
+      </c>
+      <c r="AR13">
+        <v>370</v>
+      </c>
+      <c r="AS13">
+        <v>251</v>
+      </c>
+      <c r="AT13">
+        <v>53</v>
+      </c>
+      <c r="AU13">
+        <v>121</v>
+      </c>
+      <c r="AV13">
+        <v>341</v>
+      </c>
+      <c r="AW13">
+        <v>163</v>
+      </c>
+      <c r="AX13">
         <v>418</v>
       </c>
-      <c r="AR13">
-        <v>320</v>
-      </c>
-      <c r="AS13">
-        <v>265</v>
-      </c>
-      <c r="AT13">
-        <v>434</v>
-      </c>
-      <c r="AU13">
-        <v>234</v>
-      </c>
-      <c r="AV13">
-        <v>181</v>
-      </c>
-      <c r="AW13">
-        <v>97</v>
-      </c>
-      <c r="AX13">
-        <v>238</v>
-      </c>
       <c r="AY13">
-        <v>320</v>
+        <v>503</v>
       </c>
       <c r="AZ13">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="BA13">
-        <v>283</v>
+        <v>419</v>
       </c>
       <c r="BB13">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="BC13">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="BD13">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="BE13">
-        <v>320</v>
+        <v>124</v>
       </c>
       <c r="BF13">
-        <v>518</v>
+        <v>369</v>
       </c>
       <c r="BG13">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="BH13">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="BI13">
-        <v>730</v>
+        <v>309</v>
       </c>
       <c r="BJ13">
-        <v>496</v>
+        <v>199</v>
       </c>
       <c r="BK13">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="BL13">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="BM13">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="BN13">
-        <v>90</v>
+        <v>339</v>
       </c>
       <c r="BO13">
-        <v>128</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="14" ht="12.6" spans="1:67">
+    <row r="14" ht="13.2" spans="1:67">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" ht="12.6" spans="1:67">
+    <row r="15" ht="13.2" spans="1:67">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" ht="12.6" spans="1:67">
+    <row r="16" ht="13.2" spans="1:67">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>-1800</v>
       </c>
     </row>
-    <row r="17" ht="12.6" spans="1:67">
+    <row r="17" ht="13.2" spans="1:67">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>-1800</v>
       </c>
     </row>
-    <row r="18" ht="12.6" spans="1:67">
+    <row r="18" ht="13.2" spans="1:67">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" ht="12.6" spans="1:67">
+    <row r="19" ht="13.2" spans="1:67">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>-1800</v>
       </c>
     </row>
-    <row r="20" ht="12.6" spans="1:67">
+    <row r="20" ht="13.2" spans="1:67">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" ht="12.6" spans="1:67">
+    <row r="21" ht="13.2" spans="1:67">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" ht="12.6" spans="1:67">
+    <row r="22" ht="13.2" spans="1:67">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" ht="12.6" spans="1:67">
+    <row r="23" ht="13.2" spans="1:67">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" ht="12.6" spans="1:67">
+    <row r="24" ht="13.2" spans="1:67">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -6385,210 +6385,210 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="25" ht="12.6" spans="1:67">
+    <row r="25" ht="13.2" spans="1:67">
       <c r="A25" t="s">
         <v>90</v>
       </c>
       <c r="B25">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="C25">
+        <v>6200</v>
+      </c>
+      <c r="D25">
+        <v>8500</v>
+      </c>
+      <c r="E25">
+        <v>7600</v>
+      </c>
+      <c r="F25">
+        <v>7400</v>
+      </c>
+      <c r="G25">
+        <v>5500</v>
+      </c>
+      <c r="H25">
+        <v>6500</v>
+      </c>
+      <c r="I25">
+        <v>5000</v>
+      </c>
+      <c r="J25">
+        <v>6300</v>
+      </c>
+      <c r="K25">
+        <v>5500</v>
+      </c>
+      <c r="L25">
+        <v>8000</v>
+      </c>
+      <c r="M25">
+        <v>4400</v>
+      </c>
+      <c r="N25">
+        <v>6600</v>
+      </c>
+      <c r="O25">
+        <v>10000</v>
+      </c>
+      <c r="P25">
+        <v>4600</v>
+      </c>
+      <c r="Q25">
+        <v>5200</v>
+      </c>
+      <c r="R25">
+        <v>7100</v>
+      </c>
+      <c r="S25">
+        <v>7600</v>
+      </c>
+      <c r="T25">
+        <v>7700</v>
+      </c>
+      <c r="U25">
+        <v>5200</v>
+      </c>
+      <c r="V25">
+        <v>5500</v>
+      </c>
+      <c r="W25">
         <v>11000</v>
       </c>
-      <c r="D25">
-        <v>6700</v>
-      </c>
-      <c r="E25">
-        <v>4500</v>
-      </c>
-      <c r="F25">
-        <v>7000</v>
-      </c>
-      <c r="G25">
-        <v>9800</v>
-      </c>
-      <c r="H25">
-        <v>8000</v>
-      </c>
-      <c r="I25">
-        <v>8200</v>
-      </c>
-      <c r="J25">
-        <v>3600</v>
-      </c>
-      <c r="K25">
-        <v>4600</v>
-      </c>
-      <c r="L25">
-        <v>4500</v>
-      </c>
-      <c r="M25">
-        <v>1700</v>
-      </c>
-      <c r="N25">
-        <v>4000</v>
-      </c>
-      <c r="O25">
-        <v>2800</v>
-      </c>
-      <c r="P25">
-        <v>4500</v>
-      </c>
-      <c r="Q25">
-        <v>6400</v>
-      </c>
-      <c r="R25">
-        <v>3000</v>
-      </c>
-      <c r="S25">
-        <v>5700</v>
-      </c>
-      <c r="T25">
-        <v>4200</v>
-      </c>
-      <c r="U25">
-        <v>6500</v>
-      </c>
-      <c r="V25">
-        <v>6900</v>
-      </c>
-      <c r="W25">
-        <v>9300</v>
-      </c>
       <c r="X25">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Y25">
         <v>6000</v>
       </c>
       <c r="Z25">
-        <v>5700</v>
+        <v>9800</v>
       </c>
       <c r="AA25">
         <v>5900</v>
       </c>
       <c r="AB25">
-        <v>6900</v>
+        <v>4700</v>
       </c>
       <c r="AC25">
-        <v>8000</v>
+        <v>4900</v>
       </c>
       <c r="AD25">
+        <v>6000</v>
+      </c>
+      <c r="AE25">
+        <v>3100</v>
+      </c>
+      <c r="AF25">
+        <v>5000</v>
+      </c>
+      <c r="AG25">
+        <v>5800</v>
+      </c>
+      <c r="AH25">
+        <v>4000</v>
+      </c>
+      <c r="AI25">
+        <v>7300</v>
+      </c>
+      <c r="AJ25">
+        <v>6100</v>
+      </c>
+      <c r="AK25">
+        <v>5700</v>
+      </c>
+      <c r="AL25">
         <v>3500</v>
       </c>
-      <c r="AE25">
-        <v>4100</v>
-      </c>
-      <c r="AF25">
-        <v>4000</v>
-      </c>
-      <c r="AG25">
-        <v>4900</v>
-      </c>
-      <c r="AH25">
-        <v>7600</v>
-      </c>
-      <c r="AI25">
-        <v>4400</v>
-      </c>
-      <c r="AJ25">
-        <v>10500</v>
-      </c>
-      <c r="AK25">
-        <v>6700</v>
-      </c>
-      <c r="AL25">
+      <c r="AM25">
+        <v>6000</v>
+      </c>
+      <c r="AN25">
+        <v>7400</v>
+      </c>
+      <c r="AO25">
+        <v>15300</v>
+      </c>
+      <c r="AP25">
+        <v>13900</v>
+      </c>
+      <c r="AQ25">
+        <v>16900</v>
+      </c>
+      <c r="AR25">
+        <v>13900</v>
+      </c>
+      <c r="AS25">
+        <v>15900</v>
+      </c>
+      <c r="AT25">
+        <v>12200</v>
+      </c>
+      <c r="AU25">
+        <v>12100</v>
+      </c>
+      <c r="AV25">
+        <v>9900</v>
+      </c>
+      <c r="AW25">
+        <v>15200</v>
+      </c>
+      <c r="AX25">
+        <v>13000</v>
+      </c>
+      <c r="AY25">
+        <v>11700</v>
+      </c>
+      <c r="AZ25">
+        <v>12100</v>
+      </c>
+      <c r="BA25">
+        <v>15200</v>
+      </c>
+      <c r="BB25">
+        <v>13900</v>
+      </c>
+      <c r="BC25">
+        <v>12200</v>
+      </c>
+      <c r="BD25">
         <v>5300</v>
       </c>
-      <c r="AM25">
-        <v>4200</v>
-      </c>
-      <c r="AN25">
-        <v>4600</v>
-      </c>
-      <c r="AO25">
-        <v>2600</v>
-      </c>
-      <c r="AP25">
-        <v>3000</v>
-      </c>
-      <c r="AQ25">
-        <v>5000</v>
-      </c>
-      <c r="AR25">
-        <v>3500</v>
-      </c>
-      <c r="AS25">
-        <v>4000</v>
-      </c>
-      <c r="AT25">
-        <v>4000</v>
-      </c>
-      <c r="AU25">
-        <v>3200</v>
-      </c>
-      <c r="AV25">
-        <v>3100</v>
-      </c>
-      <c r="AW25">
-        <v>4100</v>
-      </c>
-      <c r="AX25">
-        <v>3300</v>
-      </c>
-      <c r="AY25">
-        <v>3100</v>
-      </c>
-      <c r="AZ25">
-        <v>3000</v>
-      </c>
-      <c r="BA25">
+      <c r="BE25">
+        <v>13100</v>
+      </c>
+      <c r="BF25">
+        <v>11700</v>
+      </c>
+      <c r="BG25">
         <v>5400</v>
       </c>
-      <c r="BB25">
-        <v>4400</v>
-      </c>
-      <c r="BC25">
-        <v>3200</v>
-      </c>
-      <c r="BD25">
-        <v>10600</v>
-      </c>
-      <c r="BE25">
-        <v>5500</v>
-      </c>
-      <c r="BF25">
-        <v>5100</v>
-      </c>
-      <c r="BG25">
-        <v>3400</v>
-      </c>
       <c r="BH25">
-        <v>7800</v>
+        <v>6200</v>
       </c>
       <c r="BI25">
-        <v>3400</v>
+        <v>7200</v>
       </c>
       <c r="BJ25">
-        <v>5200</v>
+        <v>6200</v>
       </c>
       <c r="BK25">
-        <v>5100</v>
+        <v>6100</v>
       </c>
       <c r="BL25">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="BM25">
-        <v>4200</v>
+        <v>5300</v>
       </c>
       <c r="BN25">
         <v>5200</v>
       </c>
       <c r="BO25">
-        <v>5000</v>
+        <v>3700</v>
       </c>
     </row>
-    <row r="26" ht="12.6" spans="1:67">
+    <row r="26" ht="13.2" spans="1:67">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -6596,169 +6596,169 @@
         <v>6000</v>
       </c>
       <c r="C26">
-        <v>6200</v>
+        <v>10000</v>
       </c>
       <c r="D26">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="E26">
-        <v>7600</v>
+        <v>6300</v>
       </c>
       <c r="F26">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="G26">
+        <v>8100</v>
+      </c>
+      <c r="H26">
         <v>5500</v>
       </c>
-      <c r="H26">
-        <v>6500</v>
-      </c>
       <c r="I26">
-        <v>5000</v>
+        <v>7100</v>
       </c>
       <c r="J26">
-        <v>6300</v>
+        <v>20700</v>
       </c>
       <c r="K26">
-        <v>5500</v>
+        <v>7200</v>
       </c>
       <c r="L26">
+        <v>8300</v>
+      </c>
+      <c r="M26">
         <v>8000</v>
       </c>
-      <c r="M26">
-        <v>4400</v>
-      </c>
       <c r="N26">
-        <v>6600</v>
+        <v>7800</v>
       </c>
       <c r="O26">
         <v>10000</v>
       </c>
       <c r="P26">
-        <v>4600</v>
+        <v>8600</v>
       </c>
       <c r="Q26">
-        <v>5200</v>
+        <v>6800</v>
       </c>
       <c r="R26">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="S26">
-        <v>7600</v>
+        <v>7000</v>
       </c>
       <c r="T26">
-        <v>7700</v>
+        <v>8700</v>
       </c>
       <c r="U26">
-        <v>5200</v>
+        <v>11700</v>
       </c>
       <c r="V26">
-        <v>5500</v>
+        <v>6400</v>
       </c>
       <c r="W26">
         <v>11000</v>
       </c>
       <c r="X26">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Y26">
+        <v>6600</v>
+      </c>
+      <c r="Z26">
+        <v>11900</v>
+      </c>
+      <c r="AA26">
+        <v>9300</v>
+      </c>
+      <c r="AB26">
+        <v>3100</v>
+      </c>
+      <c r="AC26">
         <v>6000</v>
-      </c>
-      <c r="Z26">
-        <v>9800</v>
-      </c>
-      <c r="AA26">
-        <v>5900</v>
-      </c>
-      <c r="AB26">
-        <v>4700</v>
-      </c>
-      <c r="AC26">
-        <v>4900</v>
       </c>
       <c r="AD26">
         <v>6000</v>
       </c>
       <c r="AE26">
-        <v>3100</v>
+        <v>7500</v>
       </c>
       <c r="AF26">
+        <v>7000</v>
+      </c>
+      <c r="AG26">
+        <v>6000</v>
+      </c>
+      <c r="AH26">
+        <v>4500</v>
+      </c>
+      <c r="AI26">
+        <v>6800</v>
+      </c>
+      <c r="AJ26">
+        <v>10500</v>
+      </c>
+      <c r="AK26">
+        <v>5800</v>
+      </c>
+      <c r="AL26">
+        <v>2600</v>
+      </c>
+      <c r="AM26">
+        <v>9100</v>
+      </c>
+      <c r="AN26">
+        <v>5200</v>
+      </c>
+      <c r="AO26">
+        <v>10000</v>
+      </c>
+      <c r="AP26">
+        <v>9100</v>
+      </c>
+      <c r="AQ26">
+        <v>11000</v>
+      </c>
+      <c r="AR26">
+        <v>9000</v>
+      </c>
+      <c r="AS26">
+        <v>11000</v>
+      </c>
+      <c r="AT26">
+        <v>9000</v>
+      </c>
+      <c r="AU26">
+        <v>8000</v>
+      </c>
+      <c r="AV26">
+        <v>6900</v>
+      </c>
+      <c r="AW26">
+        <v>9300</v>
+      </c>
+      <c r="AX26">
+        <v>8100</v>
+      </c>
+      <c r="AY26">
+        <v>3000</v>
+      </c>
+      <c r="AZ26">
+        <v>8100</v>
+      </c>
+      <c r="BA26">
+        <v>8200</v>
+      </c>
+      <c r="BB26">
+        <v>10000</v>
+      </c>
+      <c r="BC26">
+        <v>9300</v>
+      </c>
+      <c r="BD26">
         <v>5000</v>
       </c>
-      <c r="AG26">
-        <v>5800</v>
-      </c>
-      <c r="AH26">
-        <v>4000</v>
-      </c>
-      <c r="AI26">
-        <v>7300</v>
-      </c>
-      <c r="AJ26">
-        <v>6100</v>
-      </c>
-      <c r="AK26">
-        <v>5700</v>
-      </c>
-      <c r="AL26">
-        <v>3500</v>
-      </c>
-      <c r="AM26">
-        <v>6000</v>
-      </c>
-      <c r="AN26">
-        <v>7400</v>
-      </c>
-      <c r="AO26">
-        <v>15300</v>
-      </c>
-      <c r="AP26">
-        <v>13900</v>
-      </c>
-      <c r="AQ26">
-        <v>16900</v>
-      </c>
-      <c r="AR26">
-        <v>13900</v>
-      </c>
-      <c r="AS26">
-        <v>15900</v>
-      </c>
-      <c r="AT26">
-        <v>12200</v>
-      </c>
-      <c r="AU26">
-        <v>12100</v>
-      </c>
-      <c r="AV26">
-        <v>9900</v>
-      </c>
-      <c r="AW26">
-        <v>15200</v>
-      </c>
-      <c r="AX26">
-        <v>13000</v>
-      </c>
-      <c r="AY26">
-        <v>11700</v>
-      </c>
-      <c r="AZ26">
-        <v>12100</v>
-      </c>
-      <c r="BA26">
-        <v>15200</v>
-      </c>
-      <c r="BB26">
-        <v>13900</v>
-      </c>
-      <c r="BC26">
-        <v>12200</v>
-      </c>
-      <c r="BD26">
-        <v>5300</v>
-      </c>
       <c r="BE26">
-        <v>13100</v>
+        <v>9500</v>
       </c>
       <c r="BF26">
         <v>11700</v>
@@ -6791,177 +6791,177 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="27" ht="12.6" spans="1:67">
+    <row r="27" ht="13.2" spans="1:67">
       <c r="A27" t="s">
         <v>92</v>
       </c>
       <c r="B27">
+        <v>3400</v>
+      </c>
+      <c r="C27">
         <v>4500</v>
       </c>
-      <c r="C27">
+      <c r="D27">
+        <v>8600</v>
+      </c>
+      <c r="E27">
+        <v>5600</v>
+      </c>
+      <c r="F27">
+        <v>6100</v>
+      </c>
+      <c r="G27">
+        <v>7900</v>
+      </c>
+      <c r="H27">
+        <v>6500</v>
+      </c>
+      <c r="I27">
+        <v>10600</v>
+      </c>
+      <c r="J27">
+        <v>17400</v>
+      </c>
+      <c r="K27">
+        <v>7400</v>
+      </c>
+      <c r="L27">
+        <v>3200</v>
+      </c>
+      <c r="M27">
+        <v>6700</v>
+      </c>
+      <c r="N27">
+        <v>9500</v>
+      </c>
+      <c r="O27">
+        <v>8000</v>
+      </c>
+      <c r="P27">
+        <v>3000</v>
+      </c>
+      <c r="Q27">
+        <v>6900</v>
+      </c>
+      <c r="R27">
+        <v>6300</v>
+      </c>
+      <c r="S27">
+        <v>6400</v>
+      </c>
+      <c r="T27">
+        <v>9000</v>
+      </c>
+      <c r="U27">
+        <v>12800</v>
+      </c>
+      <c r="V27">
+        <v>7100</v>
+      </c>
+      <c r="W27">
+        <v>4000</v>
+      </c>
+      <c r="X27">
+        <v>6000</v>
+      </c>
+      <c r="Y27">
+        <v>6000</v>
+      </c>
+      <c r="Z27">
+        <v>4300</v>
+      </c>
+      <c r="AA27">
+        <v>6900</v>
+      </c>
+      <c r="AB27">
+        <v>4500</v>
+      </c>
+      <c r="AC27">
+        <v>9000</v>
+      </c>
+      <c r="AD27">
         <v>7000</v>
       </c>
-      <c r="D27">
-        <v>8800</v>
-      </c>
-      <c r="E27">
+      <c r="AE27">
+        <v>7600</v>
+      </c>
+      <c r="AF27">
+        <v>7000</v>
+      </c>
+      <c r="AG27">
+        <v>8000</v>
+      </c>
+      <c r="AH27">
+        <v>9000</v>
+      </c>
+      <c r="AI27">
+        <v>5100</v>
+      </c>
+      <c r="AJ27">
+        <v>10900</v>
+      </c>
+      <c r="AK27">
         <v>7200</v>
       </c>
-      <c r="F27">
-        <v>4900</v>
-      </c>
-      <c r="G27">
-        <v>8000</v>
-      </c>
-      <c r="H27">
-        <v>7000</v>
-      </c>
-      <c r="I27">
-        <v>8500</v>
-      </c>
-      <c r="J27">
-        <v>14100</v>
-      </c>
-      <c r="K27">
-        <v>9500</v>
-      </c>
-      <c r="L27">
-        <v>7600</v>
-      </c>
-      <c r="M27">
-        <v>4600</v>
-      </c>
-      <c r="N27">
-        <v>8800</v>
-      </c>
-      <c r="O27">
-        <v>2800</v>
-      </c>
-      <c r="P27">
-        <v>2300</v>
-      </c>
-      <c r="Q27">
-        <v>5500</v>
-      </c>
-      <c r="R27">
-        <v>2200</v>
-      </c>
-      <c r="S27">
-        <v>9200</v>
-      </c>
-      <c r="T27">
-        <v>8900</v>
-      </c>
-      <c r="U27">
-        <v>3900</v>
-      </c>
-      <c r="V27">
-        <v>6200</v>
-      </c>
-      <c r="W27">
-        <v>11000</v>
-      </c>
-      <c r="X27">
-        <v>4200</v>
-      </c>
-      <c r="Y27">
-        <v>6600</v>
-      </c>
-      <c r="Z27">
-        <v>5200</v>
-      </c>
-      <c r="AA27">
-        <v>2000</v>
-      </c>
-      <c r="AB27">
-        <v>5500</v>
-      </c>
-      <c r="AC27">
-        <v>7100</v>
-      </c>
-      <c r="AD27">
-        <v>6000</v>
-      </c>
-      <c r="AE27">
-        <v>2600</v>
-      </c>
-      <c r="AF27">
-        <v>4000</v>
-      </c>
-      <c r="AG27">
-        <v>5800</v>
-      </c>
-      <c r="AH27">
-        <v>8500</v>
-      </c>
-      <c r="AI27">
-        <v>7700</v>
-      </c>
-      <c r="AJ27">
-        <v>4000</v>
-      </c>
-      <c r="AK27">
-        <v>7100</v>
-      </c>
       <c r="AL27">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="AM27">
         <v>5100</v>
       </c>
       <c r="AN27">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="AO27">
-        <v>13400</v>
+        <v>9000</v>
       </c>
       <c r="AP27">
-        <v>12900</v>
+        <v>8100</v>
       </c>
       <c r="AQ27">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="AR27">
-        <v>13000</v>
+        <v>8600</v>
       </c>
       <c r="AS27">
-        <v>14300</v>
+        <v>11000</v>
       </c>
       <c r="AT27">
-        <v>14000</v>
+        <v>9100</v>
       </c>
       <c r="AU27">
-        <v>12000</v>
+        <v>8100</v>
       </c>
       <c r="AV27">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="AW27">
-        <v>15200</v>
+        <v>9200</v>
       </c>
       <c r="AX27">
-        <v>13100</v>
+        <v>9100</v>
       </c>
       <c r="AY27">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="AZ27">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="BA27">
-        <v>15700</v>
+        <v>10200</v>
       </c>
       <c r="BB27">
-        <v>15000</v>
+        <v>8100</v>
       </c>
       <c r="BC27">
-        <v>11100</v>
+        <v>8400</v>
       </c>
       <c r="BD27">
-        <v>4500</v>
+        <v>5300</v>
       </c>
       <c r="BE27">
-        <v>19100</v>
+        <v>13300</v>
       </c>
       <c r="BF27">
         <v>13200</v>
@@ -6991,416 +6991,416 @@
         <v>4800</v>
       </c>
       <c r="BO27">
-        <v>4300</v>
+        <v>3700</v>
       </c>
     </row>
-    <row r="28" ht="12.6" spans="1:67">
+    <row r="28" ht="13.2" spans="1:67">
       <c r="A28" t="s">
         <v>93</v>
       </c>
       <c r="B28">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="C28">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="D28">
-        <v>6500</v>
+        <v>8800</v>
       </c>
       <c r="E28">
-        <v>6300</v>
+        <v>7200</v>
       </c>
       <c r="F28">
+        <v>4900</v>
+      </c>
+      <c r="G28">
+        <v>8000</v>
+      </c>
+      <c r="H28">
         <v>7000</v>
       </c>
-      <c r="G28">
-        <v>8100</v>
-      </c>
-      <c r="H28">
+      <c r="I28">
+        <v>8500</v>
+      </c>
+      <c r="J28">
+        <v>14100</v>
+      </c>
+      <c r="K28">
+        <v>9500</v>
+      </c>
+      <c r="L28">
+        <v>7600</v>
+      </c>
+      <c r="M28">
+        <v>4600</v>
+      </c>
+      <c r="N28">
+        <v>8800</v>
+      </c>
+      <c r="O28">
+        <v>2800</v>
+      </c>
+      <c r="P28">
+        <v>2300</v>
+      </c>
+      <c r="Q28">
         <v>5500</v>
       </c>
-      <c r="I28">
-        <v>7100</v>
-      </c>
-      <c r="J28">
-        <v>20700</v>
-      </c>
-      <c r="K28">
-        <v>7200</v>
-      </c>
-      <c r="L28">
-        <v>8300</v>
-      </c>
-      <c r="M28">
-        <v>8000</v>
-      </c>
-      <c r="N28">
-        <v>7800</v>
-      </c>
-      <c r="O28">
-        <v>10000</v>
-      </c>
-      <c r="P28">
-        <v>8600</v>
-      </c>
-      <c r="Q28">
-        <v>6800</v>
-      </c>
       <c r="R28">
-        <v>7000</v>
+        <v>2200</v>
       </c>
       <c r="S28">
-        <v>7000</v>
+        <v>9200</v>
       </c>
       <c r="T28">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="U28">
-        <v>11700</v>
+        <v>3900</v>
       </c>
       <c r="V28">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="W28">
         <v>11000</v>
       </c>
       <c r="X28">
-        <v>7000</v>
+        <v>4200</v>
       </c>
       <c r="Y28">
         <v>6600</v>
       </c>
       <c r="Z28">
-        <v>11900</v>
+        <v>5200</v>
       </c>
       <c r="AA28">
-        <v>9300</v>
+        <v>2000</v>
       </c>
       <c r="AB28">
-        <v>3100</v>
+        <v>5500</v>
       </c>
       <c r="AC28">
-        <v>6000</v>
+        <v>7100</v>
       </c>
       <c r="AD28">
         <v>6000</v>
       </c>
       <c r="AE28">
-        <v>7500</v>
+        <v>2600</v>
       </c>
       <c r="AF28">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="AG28">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="AH28">
+        <v>8500</v>
+      </c>
+      <c r="AI28">
+        <v>7700</v>
+      </c>
+      <c r="AJ28">
+        <v>4000</v>
+      </c>
+      <c r="AK28">
+        <v>7100</v>
+      </c>
+      <c r="AL28">
+        <v>3500</v>
+      </c>
+      <c r="AM28">
+        <v>5100</v>
+      </c>
+      <c r="AN28">
+        <v>7700</v>
+      </c>
+      <c r="AO28">
+        <v>13400</v>
+      </c>
+      <c r="AP28">
+        <v>12900</v>
+      </c>
+      <c r="AQ28">
+        <v>17000</v>
+      </c>
+      <c r="AR28">
+        <v>13000</v>
+      </c>
+      <c r="AS28">
+        <v>14300</v>
+      </c>
+      <c r="AT28">
+        <v>14000</v>
+      </c>
+      <c r="AU28">
+        <v>12000</v>
+      </c>
+      <c r="AV28">
+        <v>12000</v>
+      </c>
+      <c r="AW28">
+        <v>15200</v>
+      </c>
+      <c r="AX28">
+        <v>13100</v>
+      </c>
+      <c r="AY28">
+        <v>11000</v>
+      </c>
+      <c r="AZ28">
+        <v>12000</v>
+      </c>
+      <c r="BA28">
+        <v>15700</v>
+      </c>
+      <c r="BB28">
+        <v>15000</v>
+      </c>
+      <c r="BC28">
+        <v>11100</v>
+      </c>
+      <c r="BD28">
         <v>4500</v>
       </c>
-      <c r="AI28">
-        <v>6800</v>
-      </c>
-      <c r="AJ28">
-        <v>10500</v>
-      </c>
-      <c r="AK28">
-        <v>5800</v>
-      </c>
-      <c r="AL28">
-        <v>2600</v>
-      </c>
-      <c r="AM28">
-        <v>9100</v>
-      </c>
-      <c r="AN28">
+      <c r="BE28">
+        <v>19100</v>
+      </c>
+      <c r="BF28">
+        <v>13200</v>
+      </c>
+      <c r="BG28">
+        <v>5900</v>
+      </c>
+      <c r="BH28">
         <v>5200</v>
       </c>
-      <c r="AO28">
-        <v>10000</v>
-      </c>
-      <c r="AP28">
-        <v>9100</v>
-      </c>
-      <c r="AQ28">
-        <v>11000</v>
-      </c>
-      <c r="AR28">
-        <v>9000</v>
-      </c>
-      <c r="AS28">
-        <v>11000</v>
-      </c>
-      <c r="AT28">
-        <v>9000</v>
-      </c>
-      <c r="AU28">
-        <v>8000</v>
-      </c>
-      <c r="AV28">
+      <c r="BI28">
         <v>6900</v>
       </c>
-      <c r="AW28">
-        <v>9300</v>
-      </c>
-      <c r="AX28">
-        <v>8100</v>
-      </c>
-      <c r="AY28">
-        <v>3000</v>
-      </c>
-      <c r="AZ28">
-        <v>8100</v>
-      </c>
-      <c r="BA28">
-        <v>8200</v>
-      </c>
-      <c r="BB28">
-        <v>10000</v>
-      </c>
-      <c r="BC28">
-        <v>9300</v>
-      </c>
-      <c r="BD28">
-        <v>5000</v>
-      </c>
-      <c r="BE28">
-        <v>9500</v>
-      </c>
-      <c r="BF28">
-        <v>11700</v>
-      </c>
-      <c r="BG28">
-        <v>5400</v>
-      </c>
-      <c r="BH28">
-        <v>6200</v>
-      </c>
-      <c r="BI28">
-        <v>7200</v>
-      </c>
       <c r="BJ28">
-        <v>6200</v>
+        <v>4300</v>
       </c>
       <c r="BK28">
-        <v>6100</v>
+        <v>4900</v>
       </c>
       <c r="BL28">
-        <v>5300</v>
+        <v>4600</v>
       </c>
       <c r="BM28">
-        <v>5300</v>
+        <v>3500</v>
       </c>
       <c r="BN28">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="BO28">
-        <v>3700</v>
+        <v>4300</v>
       </c>
     </row>
-    <row r="29" ht="12.6" spans="1:67">
+    <row r="29" ht="13.2" spans="1:67">
       <c r="A29" t="s">
         <v>94</v>
       </c>
       <c r="B29">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="C29">
+        <v>11000</v>
+      </c>
+      <c r="D29">
+        <v>6700</v>
+      </c>
+      <c r="E29">
         <v>4500</v>
       </c>
-      <c r="D29">
-        <v>8600</v>
-      </c>
-      <c r="E29">
-        <v>5600</v>
-      </c>
       <c r="F29">
-        <v>6100</v>
+        <v>7000</v>
       </c>
       <c r="G29">
-        <v>7900</v>
+        <v>9800</v>
       </c>
       <c r="H29">
+        <v>8000</v>
+      </c>
+      <c r="I29">
+        <v>8200</v>
+      </c>
+      <c r="J29">
+        <v>3600</v>
+      </c>
+      <c r="K29">
+        <v>4600</v>
+      </c>
+      <c r="L29">
+        <v>4500</v>
+      </c>
+      <c r="M29">
+        <v>1700</v>
+      </c>
+      <c r="N29">
+        <v>4000</v>
+      </c>
+      <c r="O29">
+        <v>2800</v>
+      </c>
+      <c r="P29">
+        <v>4500</v>
+      </c>
+      <c r="Q29">
+        <v>6400</v>
+      </c>
+      <c r="R29">
+        <v>3000</v>
+      </c>
+      <c r="S29">
+        <v>5700</v>
+      </c>
+      <c r="T29">
+        <v>4200</v>
+      </c>
+      <c r="U29">
         <v>6500</v>
       </c>
-      <c r="I29">
-        <v>10600</v>
-      </c>
-      <c r="J29">
-        <v>17400</v>
-      </c>
-      <c r="K29">
-        <v>7400</v>
-      </c>
-      <c r="L29">
-        <v>3200</v>
-      </c>
-      <c r="M29">
-        <v>6700</v>
-      </c>
-      <c r="N29">
-        <v>9500</v>
-      </c>
-      <c r="O29">
-        <v>8000</v>
-      </c>
-      <c r="P29">
+      <c r="V29">
+        <v>6900</v>
+      </c>
+      <c r="W29">
+        <v>9300</v>
+      </c>
+      <c r="X29">
         <v>3000</v>
-      </c>
-      <c r="Q29">
-        <v>6900</v>
-      </c>
-      <c r="R29">
-        <v>6300</v>
-      </c>
-      <c r="S29">
-        <v>6400</v>
-      </c>
-      <c r="T29">
-        <v>9000</v>
-      </c>
-      <c r="U29">
-        <v>12800</v>
-      </c>
-      <c r="V29">
-        <v>7100</v>
-      </c>
-      <c r="W29">
-        <v>4000</v>
-      </c>
-      <c r="X29">
-        <v>6000</v>
       </c>
       <c r="Y29">
         <v>6000</v>
       </c>
       <c r="Z29">
-        <v>4300</v>
+        <v>5700</v>
       </c>
       <c r="AA29">
+        <v>5900</v>
+      </c>
+      <c r="AB29">
         <v>6900</v>
       </c>
-      <c r="AB29">
-        <v>4500</v>
-      </c>
       <c r="AC29">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="AD29">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="AE29">
+        <v>4100</v>
+      </c>
+      <c r="AF29">
+        <v>4000</v>
+      </c>
+      <c r="AG29">
+        <v>4900</v>
+      </c>
+      <c r="AH29">
         <v>7600</v>
       </c>
-      <c r="AF29">
-        <v>7000</v>
-      </c>
-      <c r="AG29">
-        <v>8000</v>
-      </c>
-      <c r="AH29">
-        <v>9000</v>
-      </c>
       <c r="AI29">
+        <v>4400</v>
+      </c>
+      <c r="AJ29">
+        <v>10500</v>
+      </c>
+      <c r="AK29">
+        <v>6700</v>
+      </c>
+      <c r="AL29">
+        <v>5300</v>
+      </c>
+      <c r="AM29">
+        <v>4200</v>
+      </c>
+      <c r="AN29">
+        <v>4600</v>
+      </c>
+      <c r="AO29">
+        <v>2600</v>
+      </c>
+      <c r="AP29">
+        <v>3000</v>
+      </c>
+      <c r="AQ29">
+        <v>5000</v>
+      </c>
+      <c r="AR29">
+        <v>3500</v>
+      </c>
+      <c r="AS29">
+        <v>4000</v>
+      </c>
+      <c r="AT29">
+        <v>4000</v>
+      </c>
+      <c r="AU29">
+        <v>3200</v>
+      </c>
+      <c r="AV29">
+        <v>3100</v>
+      </c>
+      <c r="AW29">
+        <v>4100</v>
+      </c>
+      <c r="AX29">
+        <v>3300</v>
+      </c>
+      <c r="AY29">
+        <v>3100</v>
+      </c>
+      <c r="AZ29">
+        <v>3000</v>
+      </c>
+      <c r="BA29">
+        <v>5400</v>
+      </c>
+      <c r="BB29">
+        <v>4400</v>
+      </c>
+      <c r="BC29">
+        <v>3200</v>
+      </c>
+      <c r="BD29">
+        <v>10600</v>
+      </c>
+      <c r="BE29">
+        <v>5500</v>
+      </c>
+      <c r="BF29">
         <v>5100</v>
       </c>
-      <c r="AJ29">
-        <v>10900</v>
-      </c>
-      <c r="AK29">
-        <v>7200</v>
-      </c>
-      <c r="AL29">
-        <v>1600</v>
-      </c>
-      <c r="AM29">
+      <c r="BG29">
+        <v>3400</v>
+      </c>
+      <c r="BH29">
+        <v>7800</v>
+      </c>
+      <c r="BI29">
+        <v>3400</v>
+      </c>
+      <c r="BJ29">
+        <v>5200</v>
+      </c>
+      <c r="BK29">
         <v>5100</v>
       </c>
-      <c r="AN29">
-        <v>8000</v>
-      </c>
-      <c r="AO29">
-        <v>9000</v>
-      </c>
-      <c r="AP29">
-        <v>8100</v>
-      </c>
-      <c r="AQ29">
-        <v>12000</v>
-      </c>
-      <c r="AR29">
-        <v>8600</v>
-      </c>
-      <c r="AS29">
-        <v>11000</v>
-      </c>
-      <c r="AT29">
-        <v>9100</v>
-      </c>
-      <c r="AU29">
-        <v>8100</v>
-      </c>
-      <c r="AV29">
-        <v>8000</v>
-      </c>
-      <c r="AW29">
-        <v>9200</v>
-      </c>
-      <c r="AX29">
-        <v>9100</v>
-      </c>
-      <c r="AY29">
-        <v>7000</v>
-      </c>
-      <c r="AZ29">
-        <v>8000</v>
-      </c>
-      <c r="BA29">
-        <v>10200</v>
-      </c>
-      <c r="BB29">
-        <v>8100</v>
-      </c>
-      <c r="BC29">
-        <v>8400</v>
-      </c>
-      <c r="BD29">
-        <v>5300</v>
-      </c>
-      <c r="BE29">
-        <v>13300</v>
-      </c>
-      <c r="BF29">
-        <v>13200</v>
-      </c>
-      <c r="BG29">
-        <v>5900</v>
-      </c>
-      <c r="BH29">
+      <c r="BL29">
+        <v>5100</v>
+      </c>
+      <c r="BM29">
+        <v>4200</v>
+      </c>
+      <c r="BN29">
         <v>5200</v>
       </c>
-      <c r="BI29">
-        <v>6900</v>
-      </c>
-      <c r="BJ29">
-        <v>4300</v>
-      </c>
-      <c r="BK29">
-        <v>4900</v>
-      </c>
-      <c r="BL29">
-        <v>4600</v>
-      </c>
-      <c r="BM29">
-        <v>3500</v>
-      </c>
-      <c r="BN29">
-        <v>4800</v>
-      </c>
       <c r="BO29">
-        <v>3700</v>
+        <v>5000</v>
       </c>
     </row>
-    <row r="30" ht="12.6" spans="1:67">
+    <row r="30" ht="13.2" spans="1:67">
       <c r="A30" s="4" t="s">
         <v>95</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" ht="12.6" spans="1:67">
+    <row r="31" ht="13.2" spans="1:67">
       <c r="A31" s="4" t="s">
         <v>96</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" ht="12.6" spans="1:67">
+    <row r="32" ht="13.2" spans="1:67">
       <c r="A32" s="4" t="s">
         <v>97</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" ht="12.6" spans="1:67">
+    <row r="33" ht="13.2" spans="1:67">
       <c r="A33" s="4" t="s">
         <v>98</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" ht="12.6" spans="1:67">
+    <row r="34" ht="13.2" spans="1:67">
       <c r="A34" s="4" t="s">
         <v>99</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" ht="12.6" spans="1:67">
+    <row r="35" ht="13.2" spans="1:67">
       <c r="A35" s="4" t="s">
         <v>100</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" ht="12.6" spans="1:67">
+    <row r="36" ht="13.2" spans="1:67">
       <c r="A36" s="4" t="s">
         <v>101</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" ht="12.6" spans="1:67">
+    <row r="37" ht="13.2" spans="1:67">
       <c r="A37" s="4" t="s">
         <v>102</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" ht="12.6" spans="1:67">
+    <row r="38" ht="13.2" spans="1:67">
       <c r="A38" s="4" t="s">
         <v>103</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" ht="12.6" spans="1:67">
+    <row r="39" ht="13.2" spans="1:67">
       <c r="A39" s="4" t="s">
         <v>104</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" ht="12.6" spans="1:67">
+    <row r="40" ht="13.2" spans="1:67">
       <c r="A40" s="4" t="s">
         <v>105</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" ht="12.6" spans="1:67">
+    <row r="41" ht="13.2" spans="1:67">
       <c r="A41" s="4" t="s">
         <v>106</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" ht="12.6" spans="1:2">
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" ht="12.6" spans="1:2">
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" ht="12.6" spans="1:2">
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="12.6" spans="1:2">
+    <row r="5" ht="13.2" spans="1:2">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" ht="12.6" spans="1:2">
+    <row r="6" ht="13.2" spans="1:2">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="12.6" spans="1:2">
+    <row r="7" ht="13.2" spans="1:2">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" ht="12.6" spans="1:2">
+    <row r="8" ht="13.2" spans="1:2">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="12.6" spans="1:3">
+    <row r="9" ht="13.2" spans="1:3">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" ht="12.6" spans="1:2">
+    <row r="10" ht="13.2" spans="1:2">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="12.6" spans="1:2">
+    <row r="11" ht="13.2" spans="1:2">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" ht="12.6" spans="1:2">
+    <row r="12" ht="13.2" spans="1:2">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" ht="12.6" spans="1:2">
+    <row r="13" ht="13.2" spans="1:2">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" ht="12.6" spans="1:2">
+    <row r="14" ht="13.2" spans="1:2">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" ht="12.6" spans="1:2">
+    <row r="15" ht="13.2" spans="1:2">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" ht="12.6" spans="1:2">
+    <row r="16" ht="13.2" spans="1:2">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" ht="12.6" spans="1:3">
+    <row r="17" ht="13.2" spans="1:3">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" ht="12.6" spans="1:2">
+    <row r="18" ht="13.2" spans="1:2">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" ht="12.6" spans="1:2">
+    <row r="19" ht="13.2" spans="1:2">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" ht="12.6" spans="1:2">
+    <row r="20" ht="13.2" spans="1:2">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="12.6" spans="1:2">
+    <row r="21" ht="13.2" spans="1:2">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" ht="12.6" spans="1:2">
+    <row r="22" ht="13.2" spans="1:2">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" ht="12.6" spans="1:2">
+    <row r="23" ht="13.2" spans="1:2">
       <c r="A23" t="s">
         <v>133</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" ht="12.6" spans="1:2">
+    <row r="24" ht="13.2" spans="1:2">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" ht="12.6" spans="1:3">
+    <row r="25" ht="13.2" spans="1:3">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" ht="12.6" spans="1:2">
+    <row r="26" ht="13.2" spans="1:2">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" ht="12.6" spans="1:2">
+    <row r="27" ht="13.2" spans="1:2">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" ht="12.6" spans="1:2">
+    <row r="28" ht="13.2" spans="1:2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" ht="12.6" spans="1:2">
+    <row r="29" ht="13.2" spans="1:2">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="12.6" spans="1:2">
+    <row r="30" ht="13.2" spans="1:2">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" ht="12.6" spans="1:2">
+    <row r="31" ht="13.2" spans="1:2">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" ht="12.6" spans="1:2">
+    <row r="32" ht="13.2" spans="1:2">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" ht="12.6" spans="1:3">
+    <row r="33" ht="13.2" spans="1:3">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" ht="12.6" spans="1:2">
+    <row r="34" ht="13.2" spans="1:2">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" ht="12.6" spans="1:2">
+    <row r="35" ht="13.2" spans="1:2">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" ht="12.6" spans="1:2">
+    <row r="36" ht="13.2" spans="1:2">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" ht="12.6" spans="1:2">
+    <row r="37" ht="13.2" spans="1:2">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" ht="12.6" spans="1:2">
+    <row r="38" ht="13.2" spans="1:2">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" ht="12.6" spans="1:2">
+    <row r="39" ht="13.2" spans="1:2">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" ht="12.6" spans="1:2">
+    <row r="40" ht="13.2" spans="1:2">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" ht="12.6" spans="1:3">
+    <row r="41" ht="13.2" spans="1:3">
       <c r="A41" t="s">
         <v>153</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" ht="12.6" spans="1:2">
+    <row r="42" ht="13.2" spans="1:2">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" ht="12.6" spans="1:2">
+    <row r="43" ht="13.2" spans="1:2">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" ht="12.6" spans="1:2">
+    <row r="44" ht="13.2" spans="1:2">
       <c r="A44" t="s">
         <v>157</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" ht="12.6" spans="1:2">
+    <row r="45" ht="13.2" spans="1:2">
       <c r="A45" t="s">
         <v>158</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" ht="12.6" spans="1:2">
+    <row r="46" ht="13.2" spans="1:2">
       <c r="A46" t="s">
         <v>159</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" ht="12.6" spans="1:2">
+    <row r="47" ht="13.2" spans="1:2">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" ht="12.6" spans="1:2">
+    <row r="48" ht="13.2" spans="1:2">
       <c r="A48" t="s">
         <v>161</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" ht="12.6" spans="1:3">
+    <row r="49" ht="13.2" spans="1:3">
       <c r="A49" t="s">
         <v>162</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="50" ht="12.6" spans="1:2">
+    <row r="50" ht="13.2" spans="1:2">
       <c r="A50" t="s">
         <v>164</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" ht="12.6" spans="1:2">
+    <row r="51" ht="13.2" spans="1:2">
       <c r="A51" t="s">
         <v>165</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" ht="12.6" spans="1:2">
+    <row r="52" ht="13.2" spans="1:2">
       <c r="A52" t="s">
         <v>166</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" ht="12.6" spans="1:2">
+    <row r="53" ht="13.2" spans="1:2">
       <c r="A53" t="s">
         <v>167</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" ht="12.6" spans="1:2">
+    <row r="54" ht="13.2" spans="1:2">
       <c r="A54" t="s">
         <v>168</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" ht="12.6" spans="1:2">
+    <row r="55" ht="13.2" spans="1:2">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" ht="12.6" spans="1:2">
+    <row r="56" ht="13.2" spans="1:2">
       <c r="A56" t="s">
         <v>170</v>
       </c>

--- a/data/default_biases_cryo.xlsx
+++ b/data/default_biases_cryo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11472" windowHeight="9216"/>
+    <workbookView windowWidth="23040" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Biases" sheetId="1" r:id="rId1"/>
@@ -1503,8 +1503,8 @@
   <sheetPr/>
   <dimension ref="A1:BO41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -8217,202 +8217,202 @@
         <v>99</v>
       </c>
       <c r="B34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="T34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="V34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AR34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AS34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AU34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AV34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AW34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AX34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AY34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AZ34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BA34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BB34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BC34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BD34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BE34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BF34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BG34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BH34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BI34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BJ34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BK34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BL34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BM34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BN34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BO34" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" ht="13.2" spans="1:67">
@@ -8420,202 +8420,202 @@
         <v>100</v>
       </c>
       <c r="B35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="T35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="V35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AP35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AR35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AS35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AU35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AV35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AW35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AX35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AY35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AZ35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BB35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BC35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BD35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BE35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BF35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BG35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BH35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BI35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BJ35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BK35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BL35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BM35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BN35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BO35" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" ht="13.2" spans="1:67">
@@ -8623,202 +8623,202 @@
         <v>101</v>
       </c>
       <c r="B36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="T36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="V36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AP36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AR36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AS36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AU36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AV36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AW36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AX36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AY36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AZ36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BA36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BC36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BD36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BE36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BF36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BG36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BH36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BI36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BJ36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BK36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BL36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BM36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BN36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BO36" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" ht="13.2" spans="1:67">
@@ -8826,202 +8826,202 @@
         <v>102</v>
       </c>
       <c r="B37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="T37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="V37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AP37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AR37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AS37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AV37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AW37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AX37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AY37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AZ37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BA37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BB37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BC37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BD37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BE37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BF37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BG37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BH37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BI37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BJ37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BK37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BL37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BM37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BN37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BO37" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" ht="13.2" spans="1:67">
@@ -9029,202 +9029,202 @@
         <v>103</v>
       </c>
       <c r="B38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="T38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="V38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AP38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AR38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AV38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AW38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AX38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AY38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AZ38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BA38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BC38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BD38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BE38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BF38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BG38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BH38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BI38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BJ38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BK38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BL38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BM38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BN38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BO38" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" ht="13.2" spans="1:67">
@@ -9232,202 +9232,202 @@
         <v>104</v>
       </c>
       <c r="B39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="T39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="V39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AR39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AS39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AU39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AV39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AW39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AX39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AY39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AZ39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BA39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BB39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BC39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BD39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BE39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BF39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BG39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BH39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BI39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BJ39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BK39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BL39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BM39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BN39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BO39" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" ht="13.2" spans="1:67">
@@ -9435,202 +9435,202 @@
         <v>105</v>
       </c>
       <c r="B40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="T40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="V40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AR40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AS40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AU40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AV40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AW40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AX40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AY40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AZ40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BA40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BC40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BD40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BE40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BF40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BG40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BH40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BI40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BJ40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BK40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BL40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BM40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BN40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BO40" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" ht="13.2" spans="1:67">
@@ -9638,202 +9638,202 @@
         <v>106</v>
       </c>
       <c r="B41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="T41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="V41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AP41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AS41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AU41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AV41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AW41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AX41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AY41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BB41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BC41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BD41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BE41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BF41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BG41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BH41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BI41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BJ41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BK41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BL41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BM41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BN41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BO41" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/default_biases_cryo.xlsx
+++ b/data/default_biases_cryo.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\zec\striptease\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F2EE7D-D14B-4B91-95E6-C1E84250819F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Biases" sheetId="1" r:id="rId1"/>
     <sheet name="Modules" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Biases"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="1">"Modules"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -539,14 +545,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -566,159 +566,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -731,194 +580,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -926,318 +589,32 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1495,25 +872,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AC18" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AD37" sqref="AD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.8888888888889" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9.13888888888889" style="3"/>
+    <col min="1" max="1" width="16.85546875" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:67">
+    <row r="1" spans="1:67">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:67">
+    <row r="2" spans="1:67">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1919,7 +1299,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:67">
+    <row r="3" spans="1:67">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -2122,7 +1502,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:67">
+    <row r="4" spans="1:67">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -2325,7 +1705,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" ht="13.2" spans="1:67">
+    <row r="5" spans="1:67">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -2528,7 +1908,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" ht="13.2" spans="1:67">
+    <row r="6" spans="1:67">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -2731,7 +2111,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" ht="13.2" spans="1:67">
+    <row r="7" spans="1:67">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -2934,7 +2314,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="8" ht="13.2" spans="1:67">
+    <row r="8" spans="1:67">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -3137,7 +2517,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" ht="13.2" spans="1:67">
+    <row r="9" spans="1:67">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -3340,7 +2720,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" ht="13.2" spans="1:67">
+    <row r="10" spans="1:67">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -3543,7 +2923,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" ht="13.2" spans="1:67">
+    <row r="11" spans="1:67">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -3746,7 +3126,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" ht="13.2" spans="1:67">
+    <row r="12" spans="1:67">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -3949,7 +3329,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="13" ht="13.2" spans="1:67">
+    <row r="13" spans="1:67">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -4152,7 +3532,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" ht="13.2" spans="1:67">
+    <row r="14" spans="1:67">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -4355,7 +3735,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" ht="13.2" spans="1:67">
+    <row r="15" spans="1:67">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -4558,7 +3938,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" ht="13.2" spans="1:67">
+    <row r="16" spans="1:67">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -4761,7 +4141,7 @@
         <v>-1800</v>
       </c>
     </row>
-    <row r="17" ht="13.2" spans="1:67">
+    <row r="17" spans="1:67">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -4964,7 +4344,7 @@
         <v>-1800</v>
       </c>
     </row>
-    <row r="18" ht="13.2" spans="1:67">
+    <row r="18" spans="1:67">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -5167,7 +4547,7 @@
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" ht="13.2" spans="1:67">
+    <row r="19" spans="1:67">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -5370,7 +4750,7 @@
         <v>-1800</v>
       </c>
     </row>
-    <row r="20" ht="13.2" spans="1:67">
+    <row r="20" spans="1:67">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -5573,7 +4953,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" ht="13.2" spans="1:67">
+    <row r="21" spans="1:67">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -5776,7 +5156,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" ht="13.2" spans="1:67">
+    <row r="22" spans="1:67">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -5979,7 +5359,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" ht="13.2" spans="1:67">
+    <row r="23" spans="1:67">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -6182,7 +5562,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" ht="13.2" spans="1:67">
+    <row r="24" spans="1:67">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -6385,7 +5765,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="25" ht="13.2" spans="1:67">
+    <row r="25" spans="1:67">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -6588,7 +5968,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="26" ht="13.2" spans="1:67">
+    <row r="26" spans="1:67">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -6791,7 +6171,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="27" ht="13.2" spans="1:67">
+    <row r="27" spans="1:67">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -6994,7 +6374,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="28" ht="13.2" spans="1:67">
+    <row r="28" spans="1:67">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -7197,7 +6577,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="29" ht="13.2" spans="1:67">
+    <row r="29" spans="1:67">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -7400,7 +6780,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="30" ht="13.2" spans="1:67">
+    <row r="30" spans="1:67">
       <c r="A30" s="4" t="s">
         <v>95</v>
       </c>
@@ -7603,7 +6983,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" ht="13.2" spans="1:67">
+    <row r="31" spans="1:67">
       <c r="A31" s="4" t="s">
         <v>96</v>
       </c>
@@ -7806,7 +7186,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" ht="13.2" spans="1:67">
+    <row r="32" spans="1:67">
       <c r="A32" s="4" t="s">
         <v>97</v>
       </c>
@@ -8009,7 +7389,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" ht="13.2" spans="1:67">
+    <row r="33" spans="1:67">
       <c r="A33" s="4" t="s">
         <v>98</v>
       </c>
@@ -8212,7 +7592,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" ht="13.2" spans="1:67">
+    <row r="34" spans="1:67">
       <c r="A34" s="4" t="s">
         <v>99</v>
       </c>
@@ -8247,7 +7627,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4">
-        <v>0</v>
+        <v>2170</v>
       </c>
       <c r="M34" s="4">
         <v>0</v>
@@ -8301,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="AD34" s="4">
-        <v>0</v>
+        <v>2150</v>
       </c>
       <c r="AE34" s="4">
         <v>0</v>
@@ -8322,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="4">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="AL34" s="4">
         <v>0</v>
@@ -8382,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="BE34" s="4">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="BF34" s="4">
         <v>0</v>
@@ -8415,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="13.2" spans="1:67">
+    <row r="35" spans="1:67">
       <c r="A35" s="4" t="s">
         <v>100</v>
       </c>
@@ -8450,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4">
-        <v>0</v>
+        <v>2170</v>
       </c>
       <c r="M35" s="4">
         <v>0</v>
@@ -8504,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="AD35" s="4">
-        <v>0</v>
+        <v>2150</v>
       </c>
       <c r="AE35" s="4">
         <v>0</v>
@@ -8525,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="4">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="AL35" s="4">
         <v>0</v>
@@ -8585,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="BE35" s="4">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="BF35" s="4">
         <v>0</v>
@@ -8618,7 +7998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="13.2" spans="1:67">
+    <row r="36" spans="1:67">
       <c r="A36" s="4" t="s">
         <v>101</v>
       </c>
@@ -8653,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4">
-        <v>0</v>
+        <v>2150</v>
       </c>
       <c r="M36" s="4">
         <v>0</v>
@@ -8707,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="AD36" s="4">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="AE36" s="4">
         <v>0</v>
@@ -8728,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="4">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="AL36" s="4">
         <v>0</v>
@@ -8788,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="BE36" s="4">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="BF36" s="4">
         <v>0</v>
@@ -8821,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="13.2" spans="1:67">
+    <row r="37" spans="1:67">
       <c r="A37" s="4" t="s">
         <v>102</v>
       </c>
@@ -8856,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4">
-        <v>0</v>
+        <v>2260</v>
       </c>
       <c r="M37" s="4">
         <v>0</v>
@@ -8910,7 +8290,7 @@
         <v>0</v>
       </c>
       <c r="AD37" s="4">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="AE37" s="4">
         <v>0</v>
@@ -8931,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="4">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="AL37" s="4">
         <v>0</v>
@@ -8991,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="BE37" s="4">
-        <v>0</v>
+        <v>2150</v>
       </c>
       <c r="BF37" s="4">
         <v>0</v>
@@ -9024,7 +8404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="13.2" spans="1:67">
+    <row r="38" spans="1:67">
       <c r="A38" s="4" t="s">
         <v>103</v>
       </c>
@@ -9227,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="13.2" spans="1:67">
+    <row r="39" spans="1:67">
       <c r="A39" s="4" t="s">
         <v>104</v>
       </c>
@@ -9430,7 +8810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="13.2" spans="1:67">
+    <row r="40" spans="1:67">
       <c r="A40" s="4" t="s">
         <v>105</v>
       </c>
@@ -9633,7 +9013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="13.2" spans="1:67">
+    <row r="41" spans="1:67">
       <c r="A41" s="4" t="s">
         <v>106</v>
       </c>
@@ -9837,28 +9217,26 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" cellComments="asDisplayed"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.83333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1111111111111" style="1" customWidth="1"/>
-    <col min="3" max="1025" width="8.5462962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9.13888888888889" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="8.5703125" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9872,7 +9250,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -9880,7 +9258,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -9888,7 +9266,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -9896,7 +9274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="13.2" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -9904,7 +9282,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" ht="13.2" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -9912,7 +9290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="13.2" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -9920,7 +9298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" ht="13.2" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -9928,7 +9306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="13.2" spans="1:3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -9939,7 +9317,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" ht="13.2" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -9947,7 +9325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="13.2" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -9955,7 +9333,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" ht="13.2" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -9963,7 +9341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" ht="13.2" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -9971,7 +9349,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" ht="13.2" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -9979,7 +9357,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" ht="13.2" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -9987,7 +9365,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" ht="13.2" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -9995,7 +9373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" ht="13.2" spans="1:3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -10006,7 +9384,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" ht="13.2" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -10014,7 +9392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" ht="13.2" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -10022,7 +9400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" ht="13.2" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -10030,7 +9408,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="13.2" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -10038,7 +9416,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" ht="13.2" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -10046,7 +9424,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" ht="13.2" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>133</v>
       </c>
@@ -10054,7 +9432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" ht="13.2" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -10062,7 +9440,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" ht="13.2" spans="1:3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -10073,7 +9451,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" ht="13.2" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -10081,7 +9459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" ht="13.2" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -10089,7 +9467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" ht="13.2" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -10097,7 +9475,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" ht="13.2" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -10105,7 +9483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="13.2" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -10113,7 +9491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" ht="13.2" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -10121,7 +9499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" ht="13.2" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -10129,7 +9507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" ht="13.2" spans="1:3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -10140,7 +9518,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" ht="13.2" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -10148,7 +9526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" ht="13.2" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -10156,7 +9534,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" ht="13.2" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -10164,7 +9542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" ht="13.2" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -10172,7 +9550,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" ht="13.2" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -10180,7 +9558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" ht="13.2" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -10188,7 +9566,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" ht="13.2" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -10196,7 +9574,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" ht="13.2" spans="1:3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>153</v>
       </c>
@@ -10207,7 +9585,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" ht="13.2" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -10215,7 +9593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" ht="13.2" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -10223,7 +9601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" ht="13.2" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>157</v>
       </c>
@@ -10231,7 +9609,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" ht="13.2" spans="1:2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>158</v>
       </c>
@@ -10239,7 +9617,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" ht="13.2" spans="1:2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>159</v>
       </c>
@@ -10247,7 +9625,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" ht="13.2" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -10255,7 +9633,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" ht="13.2" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>161</v>
       </c>
@@ -10263,7 +9641,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" ht="13.2" spans="1:3">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>162</v>
       </c>
@@ -10274,7 +9652,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="50" ht="13.2" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>164</v>
       </c>
@@ -10282,7 +9660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" ht="13.2" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>165</v>
       </c>
@@ -10290,7 +9668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" ht="13.2" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>166</v>
       </c>
@@ -10298,7 +9676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" ht="13.2" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>167</v>
       </c>
@@ -10306,7 +9684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" ht="13.2" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>168</v>
       </c>
@@ -10314,7 +9692,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" ht="13.2" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -10322,7 +9700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" ht="13.2" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -10331,8 +9709,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <pageMargins left="1" right="1" top="1.6666666666666701" bottom="1.6666666666666701" header="1" footer="1"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" cellComments="asDisplayed"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>

--- a/data/default_biases_cryo.xlsx
+++ b/data/default_biases_cryo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\zec\striptease\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\zec\Tesi\striptease\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F2EE7D-D14B-4B91-95E6-C1E84250819F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C92DA7-EBF7-477B-AAF3-8DFA3AC29390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
   <dimension ref="A1:BO41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AW23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD37" sqref="AD37"/>
+      <selection pane="bottomRight" activeCell="AC34" sqref="B34:AE37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7597,202 +7597,202 @@
         <v>99</v>
       </c>
       <c r="B34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="C34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="H34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="K34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="L34" s="4">
-        <v>2170</v>
+        <v>2500</v>
       </c>
       <c r="M34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="N34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="O34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Q34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="R34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="S34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="T34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="U34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="V34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="W34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="X34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Y34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Z34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AA34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AB34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AC34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AD34" s="4">
-        <v>2150</v>
+        <v>2500</v>
       </c>
       <c r="AE34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AF34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AG34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AH34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AI34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AJ34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AK34" s="4">
-        <v>2250</v>
+        <v>2500</v>
       </c>
       <c r="AL34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AM34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AN34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AO34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AP34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AQ34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AR34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AS34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AT34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AU34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AV34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AW34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AX34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AY34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AZ34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BA34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BB34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BC34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BD34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BE34" s="4">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="BF34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BG34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BH34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BI34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BJ34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BK34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BL34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BM34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BN34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BO34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="35" spans="1:67">
@@ -7800,202 +7800,202 @@
         <v>100</v>
       </c>
       <c r="B35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="C35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="H35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="K35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="L35" s="4">
-        <v>2170</v>
+        <v>2500</v>
       </c>
       <c r="M35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="N35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="O35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Q35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="R35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="S35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="T35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="U35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="V35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="W35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="X35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Y35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Z35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AA35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AB35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AC35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AD35" s="4">
-        <v>2150</v>
+        <v>2500</v>
       </c>
       <c r="AE35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AF35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AG35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AH35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AI35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AJ35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AK35" s="4">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="AL35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AM35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AN35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AO35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AP35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AQ35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AR35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AS35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AT35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AU35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AV35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AW35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AX35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AY35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AZ35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BA35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BB35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BC35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BD35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BE35" s="4">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="BF35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BG35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BH35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BI35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BJ35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BK35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BL35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BM35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BN35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BO35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="36" spans="1:67">
@@ -8003,202 +8003,202 @@
         <v>101</v>
       </c>
       <c r="B36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="C36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="H36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="K36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="L36" s="4">
-        <v>2150</v>
+        <v>2500</v>
       </c>
       <c r="M36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="N36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="O36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Q36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="R36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="S36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="T36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="U36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="V36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="W36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="X36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Y36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Z36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AA36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AB36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AC36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AD36" s="4">
-        <v>2250</v>
+        <v>2500</v>
       </c>
       <c r="AE36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AF36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AG36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AH36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AI36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AJ36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AK36" s="4">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="AL36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AM36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AN36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AO36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AP36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AQ36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AR36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AS36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AT36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AU36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AV36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AW36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AX36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AY36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AZ36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BA36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BB36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BC36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BD36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BE36" s="4">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="BF36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BG36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BH36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BI36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BJ36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BK36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BL36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BM36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BN36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BO36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="37" spans="1:67">
@@ -8206,202 +8206,202 @@
         <v>102</v>
       </c>
       <c r="B37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="H37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="K37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="L37" s="4">
-        <v>2260</v>
+        <v>2500</v>
       </c>
       <c r="M37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="N37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="O37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Q37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="R37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="S37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="T37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="U37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="V37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="W37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="X37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Y37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Z37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AA37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AB37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AC37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AD37" s="4">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="AE37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AF37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AG37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AH37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AI37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AJ37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AK37" s="4">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="AL37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AM37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AN37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AO37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AP37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AQ37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AR37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AS37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AT37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AU37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AV37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AW37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AX37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AY37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AZ37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BA37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BB37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BC37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BD37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BE37" s="4">
-        <v>2150</v>
+        <v>2500</v>
       </c>
       <c r="BF37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BG37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BH37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BI37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BJ37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BK37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BL37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BM37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BN37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BO37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="38" spans="1:67">

--- a/data/default_biases_cryo.xlsx
+++ b/data/default_biases_cryo.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\zec\Tesi\striptease\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C92DA7-EBF7-477B-AAF3-8DFA3AC29390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Biases" sheetId="1" r:id="rId1"/>
     <sheet name="Modules" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Biases"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="1">"Modules"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -539,14 +545,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -566,159 +566,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -731,194 +580,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -926,318 +589,32 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1495,25 +872,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AW23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AC34" sqref="B34:AE37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.8888888888889" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9.13888888888889" style="3"/>
+    <col min="1" max="1" width="16.85546875" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:67">
+    <row r="1" spans="1:67">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:67">
+    <row r="2" spans="1:67">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1919,7 +1299,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:67">
+    <row r="3" spans="1:67">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -2122,7 +1502,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:67">
+    <row r="4" spans="1:67">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -2325,7 +1705,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" ht="13.2" spans="1:67">
+    <row r="5" spans="1:67">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -2528,7 +1908,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" ht="13.2" spans="1:67">
+    <row r="6" spans="1:67">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -2731,7 +2111,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" ht="13.2" spans="1:67">
+    <row r="7" spans="1:67">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -2934,7 +2314,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="8" ht="13.2" spans="1:67">
+    <row r="8" spans="1:67">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -3137,7 +2517,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" ht="13.2" spans="1:67">
+    <row r="9" spans="1:67">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -3340,7 +2720,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" ht="13.2" spans="1:67">
+    <row r="10" spans="1:67">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -3543,7 +2923,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" ht="13.2" spans="1:67">
+    <row r="11" spans="1:67">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -3746,7 +3126,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" ht="13.2" spans="1:67">
+    <row r="12" spans="1:67">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -3949,7 +3329,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="13" ht="13.2" spans="1:67">
+    <row r="13" spans="1:67">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -4152,7 +3532,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" ht="13.2" spans="1:67">
+    <row r="14" spans="1:67">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -4355,7 +3735,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" ht="13.2" spans="1:67">
+    <row r="15" spans="1:67">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -4558,7 +3938,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" ht="13.2" spans="1:67">
+    <row r="16" spans="1:67">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -4761,7 +4141,7 @@
         <v>-1800</v>
       </c>
     </row>
-    <row r="17" ht="13.2" spans="1:67">
+    <row r="17" spans="1:67">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -4964,7 +4344,7 @@
         <v>-1800</v>
       </c>
     </row>
-    <row r="18" ht="13.2" spans="1:67">
+    <row r="18" spans="1:67">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -5167,7 +4547,7 @@
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" ht="13.2" spans="1:67">
+    <row r="19" spans="1:67">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -5370,7 +4750,7 @@
         <v>-1800</v>
       </c>
     </row>
-    <row r="20" ht="13.2" spans="1:67">
+    <row r="20" spans="1:67">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -5573,7 +4953,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" ht="13.2" spans="1:67">
+    <row r="21" spans="1:67">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -5776,7 +5156,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" ht="13.2" spans="1:67">
+    <row r="22" spans="1:67">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -5979,7 +5359,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" ht="13.2" spans="1:67">
+    <row r="23" spans="1:67">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -6182,7 +5562,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" ht="13.2" spans="1:67">
+    <row r="24" spans="1:67">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -6385,7 +5765,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="25" ht="13.2" spans="1:67">
+    <row r="25" spans="1:67">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -6588,7 +5968,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="26" ht="13.2" spans="1:67">
+    <row r="26" spans="1:67">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -6791,7 +6171,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="27" ht="13.2" spans="1:67">
+    <row r="27" spans="1:67">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -6994,7 +6374,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="28" ht="13.2" spans="1:67">
+    <row r="28" spans="1:67">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -7197,7 +6577,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="29" ht="13.2" spans="1:67">
+    <row r="29" spans="1:67">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -7400,7 +6780,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="30" ht="13.2" spans="1:67">
+    <row r="30" spans="1:67">
       <c r="A30" s="4" t="s">
         <v>95</v>
       </c>
@@ -7603,7 +6983,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" ht="13.2" spans="1:67">
+    <row r="31" spans="1:67">
       <c r="A31" s="4" t="s">
         <v>96</v>
       </c>
@@ -7806,7 +7186,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" ht="13.2" spans="1:67">
+    <row r="32" spans="1:67">
       <c r="A32" s="4" t="s">
         <v>97</v>
       </c>
@@ -8009,7 +7389,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" ht="13.2" spans="1:67">
+    <row r="33" spans="1:67">
       <c r="A33" s="4" t="s">
         <v>98</v>
       </c>
@@ -8212,819 +7592,819 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" ht="13.2" spans="1:67">
+    <row r="34" spans="1:67">
       <c r="A34" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="C34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="H34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="K34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="L34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="M34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="N34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="O34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Q34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="R34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="S34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="T34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="U34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="V34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="W34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="X34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Y34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Z34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AA34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AB34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AC34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AD34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AE34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AF34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AG34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AH34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AI34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AJ34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AK34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AL34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AM34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AN34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AO34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AP34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AQ34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AR34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AS34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AT34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AU34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AV34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AW34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AX34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AY34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AZ34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BA34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BB34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BC34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BD34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BE34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BF34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BG34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BH34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BI34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BJ34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BK34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BL34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BM34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BN34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BO34" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
-    <row r="35" ht="13.2" spans="1:67">
+    <row r="35" spans="1:67">
       <c r="A35" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="C35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="H35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="K35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="L35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="M35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="N35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="O35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Q35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="R35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="S35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="T35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="U35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="V35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="W35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="X35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Y35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Z35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AA35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AB35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AC35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AD35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AE35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AF35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AG35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AH35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AI35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AJ35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AK35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AL35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AM35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AN35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AO35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AP35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AQ35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AR35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AS35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AT35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AU35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AV35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AW35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AX35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AY35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AZ35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BA35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BB35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BC35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BD35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BE35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BF35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BG35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BH35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BI35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BJ35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BK35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BL35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BM35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BN35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BO35" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
-    <row r="36" ht="13.2" spans="1:67">
+    <row r="36" spans="1:67">
       <c r="A36" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="C36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="H36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="K36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="L36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="M36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="N36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="O36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Q36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="R36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="S36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="T36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="U36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="V36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="W36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="X36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Y36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Z36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AA36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AB36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AC36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AD36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AE36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AF36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AG36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AH36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AI36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AJ36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AK36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AL36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AM36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AN36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AO36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AP36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AQ36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AR36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AS36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AT36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AU36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AV36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AW36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AX36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AY36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AZ36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BA36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BB36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BC36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BD36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BE36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BF36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BG36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BH36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BI36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BJ36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BK36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BL36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BM36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BN36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BO36" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
-    <row r="37" ht="13.2" spans="1:67">
+    <row r="37" spans="1:67">
       <c r="A37" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="H37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="J37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="K37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="L37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="M37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="N37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="O37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Q37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="R37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="S37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="T37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="U37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="V37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="W37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="X37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Y37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="Z37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AA37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AB37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AC37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AD37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AE37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AF37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AG37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AH37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AI37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AJ37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AK37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AL37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AM37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AN37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AO37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AP37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AQ37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AR37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AS37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AT37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AU37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AV37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AW37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AX37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AY37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AZ37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BA37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BB37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BC37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BD37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BE37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BF37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BG37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BH37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BI37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BJ37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BK37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BL37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BM37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BN37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="BO37" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
-    <row r="38" ht="13.2" spans="1:67">
+    <row r="38" spans="1:67">
       <c r="A38" s="4" t="s">
         <v>103</v>
       </c>
@@ -9227,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="13.2" spans="1:67">
+    <row r="39" spans="1:67">
       <c r="A39" s="4" t="s">
         <v>104</v>
       </c>
@@ -9430,7 +8810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="13.2" spans="1:67">
+    <row r="40" spans="1:67">
       <c r="A40" s="4" t="s">
         <v>105</v>
       </c>
@@ -9633,7 +9013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="13.2" spans="1:67">
+    <row r="41" spans="1:67">
       <c r="A41" s="4" t="s">
         <v>106</v>
       </c>
@@ -9837,28 +9217,26 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" cellComments="asDisplayed"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.83333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1111111111111" style="1" customWidth="1"/>
-    <col min="3" max="1025" width="8.5462962962963" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9.13888888888889" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="8.5703125" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9872,7 +9250,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -9880,7 +9258,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -9888,7 +9266,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -9896,7 +9274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="13.2" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -9904,7 +9282,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" ht="13.2" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -9912,7 +9290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="13.2" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -9920,7 +9298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" ht="13.2" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -9928,7 +9306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="13.2" spans="1:3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -9939,7 +9317,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" ht="13.2" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -9947,7 +9325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="13.2" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -9955,7 +9333,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" ht="13.2" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -9963,7 +9341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" ht="13.2" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -9971,7 +9349,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" ht="13.2" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -9979,7 +9357,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" ht="13.2" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -9987,7 +9365,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" ht="13.2" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -9995,7 +9373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" ht="13.2" spans="1:3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -10006,7 +9384,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" ht="13.2" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -10014,7 +9392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" ht="13.2" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -10022,7 +9400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" ht="13.2" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -10030,7 +9408,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="13.2" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -10038,7 +9416,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" ht="13.2" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -10046,7 +9424,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" ht="13.2" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>133</v>
       </c>
@@ -10054,7 +9432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" ht="13.2" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -10062,7 +9440,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" ht="13.2" spans="1:3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -10073,7 +9451,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" ht="13.2" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -10081,7 +9459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" ht="13.2" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -10089,7 +9467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" ht="13.2" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -10097,7 +9475,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" ht="13.2" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -10105,7 +9483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="13.2" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -10113,7 +9491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" ht="13.2" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -10121,7 +9499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" ht="13.2" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -10129,7 +9507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" ht="13.2" spans="1:3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -10140,7 +9518,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" ht="13.2" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -10148,7 +9526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" ht="13.2" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -10156,7 +9534,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" ht="13.2" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -10164,7 +9542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" ht="13.2" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -10172,7 +9550,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" ht="13.2" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -10180,7 +9558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" ht="13.2" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -10188,7 +9566,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" ht="13.2" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -10196,7 +9574,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" ht="13.2" spans="1:3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>153</v>
       </c>
@@ -10207,7 +9585,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" ht="13.2" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -10215,7 +9593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" ht="13.2" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -10223,7 +9601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" ht="13.2" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>157</v>
       </c>
@@ -10231,7 +9609,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" ht="13.2" spans="1:2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>158</v>
       </c>
@@ -10239,7 +9617,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" ht="13.2" spans="1:2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>159</v>
       </c>
@@ -10247,7 +9625,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" ht="13.2" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -10255,7 +9633,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" ht="13.2" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>161</v>
       </c>
@@ -10263,7 +9641,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" ht="13.2" spans="1:3">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>162</v>
       </c>
@@ -10274,7 +9652,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="50" ht="13.2" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>164</v>
       </c>
@@ -10282,7 +9660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" ht="13.2" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>165</v>
       </c>
@@ -10290,7 +9668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" ht="13.2" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>166</v>
       </c>
@@ -10298,7 +9676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" ht="13.2" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>167</v>
       </c>
@@ -10306,7 +9684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" ht="13.2" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>168</v>
       </c>
@@ -10314,7 +9692,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" ht="13.2" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -10322,7 +9700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" ht="13.2" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -10331,8 +9709,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <pageMargins left="1" right="1" top="1.6666666666666701" bottom="1.6666666666666701" header="1" footer="1"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" cellComments="asDisplayed"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
